--- a/filepdf/uploadstockmaster.xlsx
+++ b/filepdf/uploadstockmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warehouse\filepdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B573FB-78EE-4577-85EE-93D27BCA4B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250AEE4-3151-4FC8-B0B1-DD5F01FBD526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{714AD6DD-1F87-4EDD-92AF-BD3F6C0BD49D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>item_code</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>keranjang</t>
+  </si>
+  <si>
+    <t>tebal</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0253E7D-B778-4E93-9BF1-30F2A982B090}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +494,7 @@
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -545,6 +548,9 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/filepdf/uploadstockmaster.xlsx
+++ b/filepdf/uploadstockmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warehouse\filepdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8250AEE4-3151-4FC8-B0B1-DD5F01FBD526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824AB873-118F-44E0-AF8D-992C881F368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{714AD6DD-1F87-4EDD-92AF-BD3F6C0BD49D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>item_code</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>tebal</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0253E7D-B778-4E93-9BF1-30F2A982B090}">
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,7 +497,7 @@
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -551,6 +554,9 @@
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/filepdf/uploadstockmaster.xlsx
+++ b/filepdf/uploadstockmaster.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\warehouse\filepdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824AB873-118F-44E0-AF8D-992C881F368A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC69599-FE72-4C84-90A7-FBB810F3D172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{714AD6DD-1F87-4EDD-92AF-BD3F6C0BD49D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>item_code</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>rata_pemakaian</t>
+  </si>
+  <si>
+    <t>min_stock</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -153,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,16 +482,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0253E7D-B778-4E93-9BF1-30F2A982B090}">
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -488,7 +500,7 @@
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -497,7 +509,7 @@
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -531,7 +543,7 @@
       <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -557,6 +569,35 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>16571</v>
+      </c>
+      <c r="J2">
+        <v>366074</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2">
+        <v>6000</v>
+      </c>
+      <c r="U2">
+        <v>99</v>
+      </c>
+      <c r="V2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/filepdf/uploadstockmaster.xlsx
+++ b/filepdf/uploadstockmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC69599-FE72-4C84-90A7-FBB810F3D172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EB074F-19CA-474F-B788-C427B429561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{714AD6DD-1F87-4EDD-92AF-BD3F6C0BD49D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="38">
   <si>
     <t>item_code</t>
   </si>
@@ -104,6 +104,51 @@
   </si>
   <si>
     <t>01</t>
+  </si>
+  <si>
+    <t>section_allure_sesudah</t>
+  </si>
+  <si>
+    <t>19253T</t>
+  </si>
+  <si>
+    <t>19215F</t>
+  </si>
+  <si>
+    <t>70114C</t>
+  </si>
+  <si>
+    <t>70169R</t>
+  </si>
+  <si>
+    <t>70127A</t>
+  </si>
+  <si>
+    <t>51125R</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
 </sst>
 </file>
@@ -482,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0253E7D-B778-4E93-9BF1-30F2A982B090}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,17 +544,18 @@
     <col min="7" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -576,28 +622,8667 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I2">
-        <v>16571</v>
-      </c>
-      <c r="J2">
-        <v>366074</v>
+        <v>70267</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
+      <c r="L2" s="3">
+        <v>147</v>
       </c>
       <c r="M2">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="U2">
         <v>99</v>
       </c>
       <c r="V2">
         <v>34</v>
+      </c>
+      <c r="W2">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>18333</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>147</v>
+      </c>
+      <c r="M3">
+        <v>6000</v>
+      </c>
+      <c r="W3">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>70267</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>69</v>
+      </c>
+      <c r="M4">
+        <v>3500</v>
+      </c>
+      <c r="W4">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>51074</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <v>6000</v>
+      </c>
+      <c r="W5">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>70267</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4">
+        <v>103</v>
+      </c>
+      <c r="M6">
+        <v>6000</v>
+      </c>
+      <c r="W6">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>70180</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="4">
+        <v>103</v>
+      </c>
+      <c r="M7">
+        <v>6000</v>
+      </c>
+      <c r="W7">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>70175</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="4">
+        <v>103</v>
+      </c>
+      <c r="M8">
+        <v>6000</v>
+      </c>
+      <c r="W8">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>18333</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9" s="4">
+        <v>104</v>
+      </c>
+      <c r="M9">
+        <v>5050</v>
+      </c>
+      <c r="W9">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>10465</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>6000</v>
+      </c>
+      <c r="W10">
+        <v>300505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>70267</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11" s="4">
+        <v>143</v>
+      </c>
+      <c r="M11">
+        <v>6000</v>
+      </c>
+      <c r="W11">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>70180</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>2700</v>
+      </c>
+      <c r="W12">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>70180</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>104</v>
+      </c>
+      <c r="M13">
+        <v>6000</v>
+      </c>
+      <c r="W13">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>70170</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>114</v>
+      </c>
+      <c r="M14">
+        <v>6000</v>
+      </c>
+      <c r="W14">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>70180</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>147</v>
+      </c>
+      <c r="M15">
+        <v>3010</v>
+      </c>
+      <c r="W15">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>70175</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>147</v>
+      </c>
+      <c r="M16">
+        <v>4750</v>
+      </c>
+      <c r="W16">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>70180</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>141</v>
+      </c>
+      <c r="M17">
+        <v>6000</v>
+      </c>
+      <c r="W17">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>70180</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18">
+        <v>6000</v>
+      </c>
+      <c r="W18">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>70175</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>141</v>
+      </c>
+      <c r="M19">
+        <v>6000</v>
+      </c>
+      <c r="W19">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>70170</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20" s="4">
+        <v>141</v>
+      </c>
+      <c r="M20">
+        <v>6000</v>
+      </c>
+      <c r="W20">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>70170</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>6000</v>
+      </c>
+      <c r="W21">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="22" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>70180</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <v>143</v>
+      </c>
+      <c r="M22">
+        <v>6000</v>
+      </c>
+      <c r="W22">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>70175</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23" s="4">
+        <v>143</v>
+      </c>
+      <c r="M23">
+        <v>6000</v>
+      </c>
+      <c r="W23">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>70170</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24" s="4">
+        <v>143</v>
+      </c>
+      <c r="M24">
+        <v>6000</v>
+      </c>
+      <c r="W24">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>70143</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>143</v>
+      </c>
+      <c r="M25">
+        <v>6000</v>
+      </c>
+      <c r="W25">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>70142</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>143</v>
+      </c>
+      <c r="M26">
+        <v>6000</v>
+      </c>
+      <c r="W26">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="27" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>70141</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>143</v>
+      </c>
+      <c r="M27">
+        <v>6000</v>
+      </c>
+      <c r="W27">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>70144</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28" s="4">
+        <v>143</v>
+      </c>
+      <c r="M28">
+        <v>6000</v>
+      </c>
+      <c r="W28">
+        <v>205004</v>
+      </c>
+    </row>
+    <row r="29" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>70140</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>143</v>
+      </c>
+      <c r="M29">
+        <v>6000</v>
+      </c>
+      <c r="W29">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="30" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30" s="4">
+        <v>123</v>
+      </c>
+      <c r="M30">
+        <v>6000</v>
+      </c>
+      <c r="W30">
+        <v>309211</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>70267</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31" s="4">
+        <v>69</v>
+      </c>
+      <c r="M31">
+        <v>3050</v>
+      </c>
+      <c r="W31">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="32" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>80250</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32" s="4">
+        <v>100</v>
+      </c>
+      <c r="M32">
+        <v>6000</v>
+      </c>
+      <c r="W32">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="33" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>70170</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>100</v>
+      </c>
+      <c r="M33">
+        <v>6000</v>
+      </c>
+      <c r="W33">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>70267</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34" s="4">
+        <v>145</v>
+      </c>
+      <c r="M34">
+        <v>4000</v>
+      </c>
+      <c r="W34">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="35" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>70267</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35" s="4">
+        <v>69</v>
+      </c>
+      <c r="M35">
+        <v>4000</v>
+      </c>
+      <c r="W35">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="36" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>70267</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4">
+        <v>77</v>
+      </c>
+      <c r="M36">
+        <v>6000</v>
+      </c>
+      <c r="W36">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="37" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>80226</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>10</v>
+      </c>
+      <c r="M37">
+        <v>5800</v>
+      </c>
+      <c r="W37">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="38" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>80226</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>3100</v>
+      </c>
+      <c r="W38">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="39" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>70267</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39" s="4">
+        <v>104</v>
+      </c>
+      <c r="M39">
+        <v>3050</v>
+      </c>
+      <c r="W39">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="40" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>11414</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>5150</v>
+      </c>
+      <c r="W40">
+        <v>301507</v>
+      </c>
+    </row>
+    <row r="41" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>18333</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41" s="4">
+        <v>123</v>
+      </c>
+      <c r="M41">
+        <v>6000</v>
+      </c>
+      <c r="W41">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>51074</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42" s="4">
+        <v>43</v>
+      </c>
+      <c r="M42">
+        <v>3825</v>
+      </c>
+      <c r="W42">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="43" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>70267</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>6000</v>
+      </c>
+      <c r="W43">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="44" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>70267</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44" s="4">
+        <v>32</v>
+      </c>
+      <c r="M44">
+        <v>6000</v>
+      </c>
+      <c r="W44">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="45" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45" s="4">
+        <v>54</v>
+      </c>
+      <c r="M45">
+        <v>5600</v>
+      </c>
+      <c r="W45">
+        <v>309210</v>
+      </c>
+    </row>
+    <row r="46" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>30329</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46" s="4">
+        <v>104</v>
+      </c>
+      <c r="M46">
+        <v>6000</v>
+      </c>
+      <c r="W46">
+        <v>247053</v>
+      </c>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>18333</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47" s="4">
+        <v>64</v>
+      </c>
+      <c r="M47">
+        <v>6000</v>
+      </c>
+      <c r="W47">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="48" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>30329</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>141</v>
+      </c>
+      <c r="M48">
+        <v>6000</v>
+      </c>
+      <c r="W48">
+        <v>247053</v>
+      </c>
+    </row>
+    <row r="49" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>70267</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>38</v>
+      </c>
+      <c r="M49">
+        <v>6000</v>
+      </c>
+      <c r="W49">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="50" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>70273</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M50">
+        <v>4000</v>
+      </c>
+      <c r="W50">
+        <v>204017</v>
+      </c>
+    </row>
+    <row r="51" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>70267</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51" s="4">
+        <v>92</v>
+      </c>
+      <c r="M51">
+        <v>6000</v>
+      </c>
+      <c r="W51">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="52" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>11458</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52" s="4">
+        <v>44</v>
+      </c>
+      <c r="M52">
+        <v>6000</v>
+      </c>
+      <c r="W52">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="53" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>51071</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53" s="4">
+        <v>41</v>
+      </c>
+      <c r="M53">
+        <v>4500</v>
+      </c>
+      <c r="W53">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="54" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>11458</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54" s="4">
+        <v>41</v>
+      </c>
+      <c r="M54">
+        <v>6000</v>
+      </c>
+      <c r="W54">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="55" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>70158</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55" s="4">
+        <v>38</v>
+      </c>
+      <c r="M55">
+        <v>6000</v>
+      </c>
+      <c r="W55">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="56" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>70258</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56" s="4">
+        <v>32</v>
+      </c>
+      <c r="M56">
+        <v>6000</v>
+      </c>
+      <c r="W56">
+        <v>209023</v>
+      </c>
+    </row>
+    <row r="57" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>70179</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57" s="4">
+        <v>32</v>
+      </c>
+      <c r="M57">
+        <v>6000</v>
+      </c>
+      <c r="W57">
+        <v>225023</v>
+      </c>
+    </row>
+    <row r="58" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>70142</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58" s="4">
+        <v>32</v>
+      </c>
+      <c r="M58">
+        <v>6000</v>
+      </c>
+      <c r="W58">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="59" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>70116</v>
+      </c>
+      <c r="K59">
+        <v>5</v>
+      </c>
+      <c r="L59" s="4">
+        <v>32</v>
+      </c>
+      <c r="M59">
+        <v>6000</v>
+      </c>
+      <c r="W59">
+        <v>209016</v>
+      </c>
+    </row>
+    <row r="60" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>51074</v>
+      </c>
+      <c r="K60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M60">
+        <v>6000</v>
+      </c>
+      <c r="W60">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="61" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>51074</v>
+      </c>
+      <c r="K61" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M61">
+        <v>6000</v>
+      </c>
+      <c r="W61">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="62" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>70249</v>
+      </c>
+      <c r="K62">
+        <v>5</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62">
+        <v>6000</v>
+      </c>
+      <c r="W62">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="63" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>70248</v>
+      </c>
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63">
+        <v>6000</v>
+      </c>
+      <c r="W63">
+        <v>204013</v>
+      </c>
+    </row>
+    <row r="64" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>70123</v>
+      </c>
+      <c r="K64">
+        <v>5</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64">
+        <v>6000</v>
+      </c>
+      <c r="W64">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="65" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>51050</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M65">
+        <v>6000</v>
+      </c>
+      <c r="W65">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="66" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>18333</v>
+      </c>
+      <c r="K66">
+        <v>5</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M66">
+        <v>4500</v>
+      </c>
+      <c r="W66">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="67" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>51132</v>
+      </c>
+      <c r="K67">
+        <v>5</v>
+      </c>
+      <c r="L67" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M67">
+        <v>6000</v>
+      </c>
+      <c r="W67">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="68" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>27805</v>
+      </c>
+      <c r="K68">
+        <v>5</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M68">
+        <v>6000</v>
+      </c>
+      <c r="W68">
+        <v>317900</v>
+      </c>
+    </row>
+    <row r="69" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>21319</v>
+      </c>
+      <c r="K69">
+        <v>5</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M69">
+        <v>6000</v>
+      </c>
+      <c r="W69">
+        <v>311400</v>
+      </c>
+    </row>
+    <row r="70" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>70117</v>
+      </c>
+      <c r="K70">
+        <v>5</v>
+      </c>
+      <c r="L70" s="4">
+        <v>38</v>
+      </c>
+      <c r="M70">
+        <v>6000</v>
+      </c>
+      <c r="W70">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="71" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>26</v>
+      </c>
+      <c r="K71">
+        <v>5</v>
+      </c>
+      <c r="L71" s="4">
+        <v>32</v>
+      </c>
+      <c r="M71">
+        <v>6000</v>
+      </c>
+      <c r="W71">
+        <v>233004</v>
+      </c>
+    </row>
+    <row r="72" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>70251</v>
+      </c>
+      <c r="K72">
+        <v>5</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M72">
+        <v>6000</v>
+      </c>
+      <c r="W72">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="73" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>70251</v>
+      </c>
+      <c r="K73">
+        <v>5</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M73">
+        <v>6000</v>
+      </c>
+      <c r="W73">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="74" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>70251</v>
+      </c>
+      <c r="K74">
+        <v>5</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74">
+        <v>6000</v>
+      </c>
+      <c r="W74">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="75" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>70251</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75" s="4">
+        <v>19</v>
+      </c>
+      <c r="M75">
+        <v>6000</v>
+      </c>
+      <c r="W75">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="76" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>70251</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76">
+        <v>6000</v>
+      </c>
+      <c r="W76">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="77" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>70251</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77" s="4">
+        <v>32</v>
+      </c>
+      <c r="M77">
+        <v>6000</v>
+      </c>
+      <c r="W77">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="78" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>70249</v>
+      </c>
+      <c r="K78">
+        <v>5</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M78">
+        <v>6000</v>
+      </c>
+      <c r="W78">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="79" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>70249</v>
+      </c>
+      <c r="K79">
+        <v>5</v>
+      </c>
+      <c r="L79" s="4">
+        <v>19</v>
+      </c>
+      <c r="M79">
+        <v>6000</v>
+      </c>
+      <c r="W79">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="80" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>70249</v>
+      </c>
+      <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M80">
+        <v>6000</v>
+      </c>
+      <c r="W80">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="81" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>70249</v>
+      </c>
+      <c r="K81">
+        <v>5</v>
+      </c>
+      <c r="L81" s="4">
+        <v>32</v>
+      </c>
+      <c r="M81">
+        <v>6000</v>
+      </c>
+      <c r="W81">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="82" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>70248</v>
+      </c>
+      <c r="K82">
+        <v>5</v>
+      </c>
+      <c r="L82" s="4">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>6000</v>
+      </c>
+      <c r="W82">
+        <v>204013</v>
+      </c>
+    </row>
+    <row r="83" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>70248</v>
+      </c>
+      <c r="K83">
+        <v>5</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M83">
+        <v>6000</v>
+      </c>
+      <c r="W83">
+        <v>204013</v>
+      </c>
+    </row>
+    <row r="84" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>70248</v>
+      </c>
+      <c r="K84">
+        <v>5</v>
+      </c>
+      <c r="L84" s="4">
+        <v>32</v>
+      </c>
+      <c r="M84">
+        <v>6000</v>
+      </c>
+      <c r="W84">
+        <v>204013</v>
+      </c>
+    </row>
+    <row r="85" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>70247</v>
+      </c>
+      <c r="K85">
+        <v>5</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85">
+        <v>6000</v>
+      </c>
+      <c r="W85">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="86" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>70247</v>
+      </c>
+      <c r="K86">
+        <v>5</v>
+      </c>
+      <c r="L86" s="4">
+        <v>19</v>
+      </c>
+      <c r="M86">
+        <v>6000</v>
+      </c>
+      <c r="W86">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="87" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>70247</v>
+      </c>
+      <c r="K87">
+        <v>5</v>
+      </c>
+      <c r="L87" s="4">
+        <v>19</v>
+      </c>
+      <c r="M87">
+        <v>3500</v>
+      </c>
+      <c r="W87">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="88" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>70247</v>
+      </c>
+      <c r="K88">
+        <v>5</v>
+      </c>
+      <c r="L88" s="4">
+        <v>32</v>
+      </c>
+      <c r="M88">
+        <v>6000</v>
+      </c>
+      <c r="W88">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="89" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>70246</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89" s="4">
+        <v>19</v>
+      </c>
+      <c r="M89">
+        <v>6000</v>
+      </c>
+      <c r="W89">
+        <v>204011</v>
+      </c>
+    </row>
+    <row r="90" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>70246</v>
+      </c>
+      <c r="K90">
+        <v>5</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M90">
+        <v>6000</v>
+      </c>
+      <c r="W90">
+        <v>204011</v>
+      </c>
+    </row>
+    <row r="91" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>70246</v>
+      </c>
+      <c r="K91">
+        <v>5</v>
+      </c>
+      <c r="L91" s="4">
+        <v>32</v>
+      </c>
+      <c r="M91">
+        <v>6000</v>
+      </c>
+      <c r="W91">
+        <v>204011</v>
+      </c>
+    </row>
+    <row r="92" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>70239</v>
+      </c>
+      <c r="K92">
+        <v>5</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92">
+        <v>6000</v>
+      </c>
+      <c r="W92">
+        <v>229027</v>
+      </c>
+    </row>
+    <row r="93" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>70219</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M93">
+        <v>6000</v>
+      </c>
+      <c r="W93">
+        <v>202017</v>
+      </c>
+    </row>
+    <row r="94" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>70218</v>
+      </c>
+      <c r="K94">
+        <v>5</v>
+      </c>
+      <c r="L94" s="4">
+        <v>32</v>
+      </c>
+      <c r="M94">
+        <v>6000</v>
+      </c>
+      <c r="W94">
+        <v>202015</v>
+      </c>
+    </row>
+    <row r="95" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>70217</v>
+      </c>
+      <c r="K95">
+        <v>5</v>
+      </c>
+      <c r="L95" s="4">
+        <v>32</v>
+      </c>
+      <c r="M95">
+        <v>6000</v>
+      </c>
+      <c r="W95">
+        <v>202014</v>
+      </c>
+    </row>
+    <row r="96" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>70216</v>
+      </c>
+      <c r="K96">
+        <v>5</v>
+      </c>
+      <c r="L96" s="4">
+        <v>32</v>
+      </c>
+      <c r="M96">
+        <v>6000</v>
+      </c>
+      <c r="W96">
+        <v>202013</v>
+      </c>
+    </row>
+    <row r="97" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>70213</v>
+      </c>
+      <c r="K97">
+        <v>5</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M97">
+        <v>6000</v>
+      </c>
+      <c r="W97">
+        <v>209012</v>
+      </c>
+    </row>
+    <row r="98" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>70205</v>
+      </c>
+      <c r="K98">
+        <v>5</v>
+      </c>
+      <c r="L98" s="4">
+        <v>32</v>
+      </c>
+      <c r="M98">
+        <v>6000</v>
+      </c>
+      <c r="W98">
+        <v>243022</v>
+      </c>
+    </row>
+    <row r="99" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>70205</v>
+      </c>
+      <c r="K99">
+        <v>5</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M99">
+        <v>6000</v>
+      </c>
+      <c r="W99">
+        <v>243022</v>
+      </c>
+    </row>
+    <row r="100" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>70180</v>
+      </c>
+      <c r="K100">
+        <v>5</v>
+      </c>
+      <c r="L100" s="4">
+        <v>32</v>
+      </c>
+      <c r="M100">
+        <v>5000</v>
+      </c>
+      <c r="W100">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="101" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I101">
+        <v>70180</v>
+      </c>
+      <c r="K101">
+        <v>5</v>
+      </c>
+      <c r="L101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M101">
+        <v>6000</v>
+      </c>
+      <c r="W101">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="102" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>70180</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+      <c r="L102" s="4">
+        <v>23</v>
+      </c>
+      <c r="M102">
+        <v>6000</v>
+      </c>
+      <c r="W102">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="103" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I103">
+        <v>70180</v>
+      </c>
+      <c r="K103">
+        <v>5</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M103">
+        <v>6000</v>
+      </c>
+      <c r="W103">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="104" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I104">
+        <v>70180</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+      <c r="L104" s="4">
+        <v>32</v>
+      </c>
+      <c r="M104">
+        <v>6000</v>
+      </c>
+      <c r="W104">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="105" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I105">
+        <v>70180</v>
+      </c>
+      <c r="K105">
+        <v>5</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M105">
+        <v>6000</v>
+      </c>
+      <c r="W105">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="106" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I106">
+        <v>70178</v>
+      </c>
+      <c r="K106">
+        <v>5</v>
+      </c>
+      <c r="L106" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106">
+        <v>6000</v>
+      </c>
+      <c r="W106">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="107" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I107">
+        <v>70175</v>
+      </c>
+      <c r="K107">
+        <v>5</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107">
+        <v>6000</v>
+      </c>
+      <c r="W107">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="108" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I108">
+        <v>70175</v>
+      </c>
+      <c r="K108">
+        <v>5</v>
+      </c>
+      <c r="L108" s="4">
+        <v>23</v>
+      </c>
+      <c r="M108">
+        <v>6000</v>
+      </c>
+      <c r="W108">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="109" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I109">
+        <v>70175</v>
+      </c>
+      <c r="K109">
+        <v>5</v>
+      </c>
+      <c r="L109" s="4">
+        <v>32</v>
+      </c>
+      <c r="M109">
+        <v>6000</v>
+      </c>
+      <c r="W109">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="110" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I110">
+        <v>70175</v>
+      </c>
+      <c r="K110">
+        <v>5</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M110">
+        <v>6000</v>
+      </c>
+      <c r="W110">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="111" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I111">
+        <v>70171</v>
+      </c>
+      <c r="K111">
+        <v>5</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M111">
+        <v>6000</v>
+      </c>
+      <c r="W111">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="112" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I112">
+        <v>70171</v>
+      </c>
+      <c r="K112">
+        <v>5</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M112">
+        <v>6000</v>
+      </c>
+      <c r="W112">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="113" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I113">
+        <v>70171</v>
+      </c>
+      <c r="K113">
+        <v>5</v>
+      </c>
+      <c r="L113" s="4">
+        <v>23</v>
+      </c>
+      <c r="M113">
+        <v>6000</v>
+      </c>
+      <c r="W113">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="114" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I114">
+        <v>70171</v>
+      </c>
+      <c r="K114">
+        <v>5</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M114">
+        <v>6000</v>
+      </c>
+      <c r="W114">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="115" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I115">
+        <v>70171</v>
+      </c>
+      <c r="K115">
+        <v>5</v>
+      </c>
+      <c r="L115" s="4">
+        <v>32</v>
+      </c>
+      <c r="M115">
+        <v>6000</v>
+      </c>
+      <c r="W115">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="116" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I116">
+        <v>70171</v>
+      </c>
+      <c r="K116">
+        <v>5</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M116">
+        <v>6000</v>
+      </c>
+      <c r="W116">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="117" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I117">
+        <v>70170</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117" s="4">
+        <v>23</v>
+      </c>
+      <c r="M117">
+        <v>6000</v>
+      </c>
+      <c r="W117">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="118" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I118">
+        <v>70170</v>
+      </c>
+      <c r="K118">
+        <v>5</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M118">
+        <v>6000</v>
+      </c>
+      <c r="W118">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="119" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I119">
+        <v>70170</v>
+      </c>
+      <c r="K119">
+        <v>5</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M119">
+        <v>6000</v>
+      </c>
+      <c r="W119">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="120" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I120">
+        <v>70170</v>
+      </c>
+      <c r="K120">
+        <v>5</v>
+      </c>
+      <c r="L120" s="4">
+        <v>32</v>
+      </c>
+      <c r="M120">
+        <v>6000</v>
+      </c>
+      <c r="W120">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="121" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I121">
+        <v>70170</v>
+      </c>
+      <c r="K121">
+        <v>5</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M121">
+        <v>6000</v>
+      </c>
+      <c r="W121">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="122" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I122">
+        <v>70158</v>
+      </c>
+      <c r="K122">
+        <v>5</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M122">
+        <v>6000</v>
+      </c>
+      <c r="W122">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="123" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I123">
+        <v>70158</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+      <c r="L123" s="4">
+        <v>32</v>
+      </c>
+      <c r="M123">
+        <v>6000</v>
+      </c>
+      <c r="W123">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="124" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I124">
+        <v>70158</v>
+      </c>
+      <c r="K124">
+        <v>5</v>
+      </c>
+      <c r="L124" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M124">
+        <v>6000</v>
+      </c>
+      <c r="W124">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="125" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I125">
+        <v>70151</v>
+      </c>
+      <c r="K125">
+        <v>5</v>
+      </c>
+      <c r="L125" s="4">
+        <v>85</v>
+      </c>
+      <c r="M125">
+        <v>6000</v>
+      </c>
+      <c r="W125">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="126" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I126">
+        <v>70151</v>
+      </c>
+      <c r="K126">
+        <v>5</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M126">
+        <v>6000</v>
+      </c>
+      <c r="W126">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="127" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I127">
+        <v>70151</v>
+      </c>
+      <c r="K127">
+        <v>5</v>
+      </c>
+      <c r="L127" s="4">
+        <v>12</v>
+      </c>
+      <c r="M127">
+        <v>6000</v>
+      </c>
+      <c r="W127">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="128" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I128">
+        <v>70151</v>
+      </c>
+      <c r="K128">
+        <v>5</v>
+      </c>
+      <c r="L128" s="4">
+        <v>13</v>
+      </c>
+      <c r="M128">
+        <v>6000</v>
+      </c>
+      <c r="W128">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="129" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I129">
+        <v>70146</v>
+      </c>
+      <c r="K129">
+        <v>5</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M129">
+        <v>6000</v>
+      </c>
+      <c r="W129">
+        <v>205008</v>
+      </c>
+    </row>
+    <row r="130" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I130">
+        <v>70146</v>
+      </c>
+      <c r="K130">
+        <v>5</v>
+      </c>
+      <c r="L130" s="4">
+        <v>32</v>
+      </c>
+      <c r="M130">
+        <v>6000</v>
+      </c>
+      <c r="W130">
+        <v>205008</v>
+      </c>
+    </row>
+    <row r="131" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I131">
+        <v>70146</v>
+      </c>
+      <c r="K131">
+        <v>5</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M131">
+        <v>6000</v>
+      </c>
+      <c r="W131">
+        <v>205008</v>
+      </c>
+    </row>
+    <row r="132" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I132">
+        <v>70144</v>
+      </c>
+      <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M132">
+        <v>6000</v>
+      </c>
+      <c r="W132">
+        <v>205004</v>
+      </c>
+    </row>
+    <row r="133" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I133">
+        <v>70144</v>
+      </c>
+      <c r="K133">
+        <v>5</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M133">
+        <v>6000</v>
+      </c>
+      <c r="W133">
+        <v>205004</v>
+      </c>
+    </row>
+    <row r="134" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I134">
+        <v>70143</v>
+      </c>
+      <c r="K134">
+        <v>5</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134">
+        <v>6000</v>
+      </c>
+      <c r="W134">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="135" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I135">
+        <v>70143</v>
+      </c>
+      <c r="K135">
+        <v>5</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M135">
+        <v>6000</v>
+      </c>
+      <c r="W135">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="136" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I136">
+        <v>70143</v>
+      </c>
+      <c r="K136">
+        <v>5</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M136">
+        <v>6000</v>
+      </c>
+      <c r="W136">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="137" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I137">
+        <v>70143</v>
+      </c>
+      <c r="K137">
+        <v>5</v>
+      </c>
+      <c r="L137" s="4">
+        <v>32</v>
+      </c>
+      <c r="M137">
+        <v>6000</v>
+      </c>
+      <c r="W137">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="138" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I138">
+        <v>70143</v>
+      </c>
+      <c r="K138">
+        <v>5</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M138">
+        <v>6000</v>
+      </c>
+      <c r="W138">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="139" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I139">
+        <v>70142</v>
+      </c>
+      <c r="K139">
+        <v>5</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139">
+        <v>6000</v>
+      </c>
+      <c r="W139">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="140" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I140">
+        <v>70142</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M140">
+        <v>6000</v>
+      </c>
+      <c r="W140">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="141" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I141">
+        <v>70142</v>
+      </c>
+      <c r="K141">
+        <v>5</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M141">
+        <v>6000</v>
+      </c>
+      <c r="W141">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="142" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I142">
+        <v>70142</v>
+      </c>
+      <c r="K142">
+        <v>5</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M142">
+        <v>6000</v>
+      </c>
+      <c r="W142">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="143" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I143">
+        <v>70141</v>
+      </c>
+      <c r="K143">
+        <v>5</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M143">
+        <v>6000</v>
+      </c>
+      <c r="W143">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="144" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I144">
+        <v>70141</v>
+      </c>
+      <c r="K144">
+        <v>5</v>
+      </c>
+      <c r="L144" s="4">
+        <v>32</v>
+      </c>
+      <c r="M144">
+        <v>6000</v>
+      </c>
+      <c r="W144">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="145" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I145">
+        <v>70141</v>
+      </c>
+      <c r="K145">
+        <v>5</v>
+      </c>
+      <c r="L145" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M145">
+        <v>6000</v>
+      </c>
+      <c r="W145">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="146" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I146">
+        <v>70140</v>
+      </c>
+      <c r="K146">
+        <v>5</v>
+      </c>
+      <c r="L146" s="4">
+        <v>32</v>
+      </c>
+      <c r="M146">
+        <v>6000</v>
+      </c>
+      <c r="W146">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="147" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I147">
+        <v>70140</v>
+      </c>
+      <c r="K147">
+        <v>5</v>
+      </c>
+      <c r="L147" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M147">
+        <v>6000</v>
+      </c>
+      <c r="W147">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="148" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I148">
+        <v>70180</v>
+      </c>
+      <c r="K148">
+        <v>5</v>
+      </c>
+      <c r="L148" s="4">
+        <v>44</v>
+      </c>
+      <c r="M148">
+        <v>6000</v>
+      </c>
+      <c r="W148">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="149" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I149">
+        <v>70144</v>
+      </c>
+      <c r="K149">
+        <v>5</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M149">
+        <v>6000</v>
+      </c>
+      <c r="W149">
+        <v>205004</v>
+      </c>
+    </row>
+    <row r="150" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I150">
+        <v>70142</v>
+      </c>
+      <c r="K150">
+        <v>5</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M150">
+        <v>6000</v>
+      </c>
+      <c r="W150">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="151" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I151">
+        <v>70158</v>
+      </c>
+      <c r="K151">
+        <v>5</v>
+      </c>
+      <c r="L151" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M151">
+        <v>6000</v>
+      </c>
+      <c r="W151">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="152" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I152">
+        <v>70140</v>
+      </c>
+      <c r="K152">
+        <v>5</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M152">
+        <v>6000</v>
+      </c>
+      <c r="W152">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="153" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I153">
+        <v>70115</v>
+      </c>
+      <c r="K153">
+        <v>5</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M153">
+        <v>6000</v>
+      </c>
+      <c r="W153">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="154" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I154">
+        <v>70143</v>
+      </c>
+      <c r="K154">
+        <v>5</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M154">
+        <v>6000</v>
+      </c>
+      <c r="W154">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="155" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I155">
+        <v>70141</v>
+      </c>
+      <c r="K155">
+        <v>5</v>
+      </c>
+      <c r="L155" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M155">
+        <v>6000</v>
+      </c>
+      <c r="W155">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="156" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I156">
+        <v>70124</v>
+      </c>
+      <c r="K156">
+        <v>5</v>
+      </c>
+      <c r="L156" s="4">
+        <v>32</v>
+      </c>
+      <c r="M156">
+        <v>6000</v>
+      </c>
+      <c r="W156">
+        <v>209018</v>
+      </c>
+    </row>
+    <row r="157" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I157">
+        <v>70123</v>
+      </c>
+      <c r="K157">
+        <v>5</v>
+      </c>
+      <c r="L157" s="4">
+        <v>32</v>
+      </c>
+      <c r="M157">
+        <v>6000</v>
+      </c>
+      <c r="W157">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="158" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I158">
+        <v>70123</v>
+      </c>
+      <c r="K158">
+        <v>5</v>
+      </c>
+      <c r="L158" s="4">
+        <v>38</v>
+      </c>
+      <c r="M158">
+        <v>6000</v>
+      </c>
+      <c r="W158">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="159" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I159">
+        <v>70122</v>
+      </c>
+      <c r="K159">
+        <v>5</v>
+      </c>
+      <c r="L159" s="4">
+        <v>32</v>
+      </c>
+      <c r="M159">
+        <v>6000</v>
+      </c>
+      <c r="W159">
+        <v>209017</v>
+      </c>
+    </row>
+    <row r="160" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I160">
+        <v>70121</v>
+      </c>
+      <c r="K160">
+        <v>5</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M160">
+        <v>6000</v>
+      </c>
+      <c r="W160">
+        <v>205005</v>
+      </c>
+    </row>
+    <row r="161" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I161">
+        <v>70117</v>
+      </c>
+      <c r="K161">
+        <v>5</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M161">
+        <v>6000</v>
+      </c>
+      <c r="W161">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="162" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I162">
+        <v>70117</v>
+      </c>
+      <c r="K162">
+        <v>5</v>
+      </c>
+      <c r="L162" s="4">
+        <v>32</v>
+      </c>
+      <c r="M162">
+        <v>6000</v>
+      </c>
+      <c r="W162">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="163" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I163">
+        <v>70117</v>
+      </c>
+      <c r="K163">
+        <v>5</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M163">
+        <v>6000</v>
+      </c>
+      <c r="W163">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="164" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I164">
+        <v>70117</v>
+      </c>
+      <c r="K164">
+        <v>5</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164">
+        <v>6000</v>
+      </c>
+      <c r="W164">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="165" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I165">
+        <v>70117</v>
+      </c>
+      <c r="K165">
+        <v>5</v>
+      </c>
+      <c r="L165" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M165">
+        <v>6000</v>
+      </c>
+      <c r="W165">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="166" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I166">
+        <v>70116</v>
+      </c>
+      <c r="K166">
+        <v>5</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M166">
+        <v>6000</v>
+      </c>
+      <c r="W166">
+        <v>209016</v>
+      </c>
+    </row>
+    <row r="167" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I167">
+        <v>70116</v>
+      </c>
+      <c r="K167">
+        <v>5</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M167">
+        <v>6000</v>
+      </c>
+      <c r="W167">
+        <v>209016</v>
+      </c>
+    </row>
+    <row r="168" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I168">
+        <v>70115</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M168">
+        <v>6000</v>
+      </c>
+      <c r="W168">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="169" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I169">
+        <v>70115</v>
+      </c>
+      <c r="K169">
+        <v>5</v>
+      </c>
+      <c r="L169" s="4">
+        <v>32</v>
+      </c>
+      <c r="M169">
+        <v>6000</v>
+      </c>
+      <c r="W169">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="170" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I170">
+        <v>70115</v>
+      </c>
+      <c r="K170">
+        <v>5</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M170">
+        <v>6000</v>
+      </c>
+      <c r="W170">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="171" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I171">
+        <v>70104</v>
+      </c>
+      <c r="K171">
+        <v>5</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M171">
+        <v>6000</v>
+      </c>
+      <c r="W171">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="172" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I172">
+        <v>70104</v>
+      </c>
+      <c r="K172">
+        <v>5</v>
+      </c>
+      <c r="L172" s="4">
+        <v>14</v>
+      </c>
+      <c r="M172">
+        <v>6000</v>
+      </c>
+      <c r="W172">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="173" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I173">
+        <v>70104</v>
+      </c>
+      <c r="K173">
+        <v>5</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M173">
+        <v>6000</v>
+      </c>
+      <c r="W173">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="174" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I174">
+        <v>70104</v>
+      </c>
+      <c r="K174">
+        <v>5</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M174">
+        <v>6000</v>
+      </c>
+      <c r="W174">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="175" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I175">
+        <v>70104</v>
+      </c>
+      <c r="K175">
+        <v>5</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M175">
+        <v>6000</v>
+      </c>
+      <c r="W175">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="176" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I176">
+        <v>70104</v>
+      </c>
+      <c r="K176">
+        <v>5</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M176">
+        <v>6000</v>
+      </c>
+      <c r="W176">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="177" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I177">
+        <v>70104</v>
+      </c>
+      <c r="K177">
+        <v>5</v>
+      </c>
+      <c r="L177" s="4">
+        <v>32</v>
+      </c>
+      <c r="M177">
+        <v>6000</v>
+      </c>
+      <c r="W177">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="178" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I178">
+        <v>70104</v>
+      </c>
+      <c r="K178">
+        <v>5</v>
+      </c>
+      <c r="L178" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M178">
+        <v>6000</v>
+      </c>
+      <c r="W178">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="179" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I179">
+        <v>70104</v>
+      </c>
+      <c r="K179">
+        <v>5</v>
+      </c>
+      <c r="L179" s="4">
+        <v>12</v>
+      </c>
+      <c r="M179">
+        <v>6000</v>
+      </c>
+      <c r="W179">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="180" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I180">
+        <v>70104</v>
+      </c>
+      <c r="K180">
+        <v>5</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M180">
+        <v>6000</v>
+      </c>
+      <c r="W180">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="181" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I181">
+        <v>70082</v>
+      </c>
+      <c r="K181">
+        <v>5</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M181">
+        <v>6000</v>
+      </c>
+      <c r="W181">
+        <v>239007</v>
+      </c>
+    </row>
+    <row r="182" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I182">
+        <v>70082</v>
+      </c>
+      <c r="K182">
+        <v>5</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M182">
+        <v>6000</v>
+      </c>
+      <c r="W182">
+        <v>239007</v>
+      </c>
+    </row>
+    <row r="183" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I183">
+        <v>70002</v>
+      </c>
+      <c r="K183">
+        <v>5</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M183">
+        <v>6000</v>
+      </c>
+      <c r="W183">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="184" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I184">
+        <v>70002</v>
+      </c>
+      <c r="K184">
+        <v>5</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M184">
+        <v>6000</v>
+      </c>
+      <c r="W184">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="185" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I185">
+        <v>51192</v>
+      </c>
+      <c r="K185">
+        <v>5</v>
+      </c>
+      <c r="L185" s="4">
+        <v>32</v>
+      </c>
+      <c r="M185">
+        <v>6000</v>
+      </c>
+      <c r="W185">
+        <v>211022</v>
+      </c>
+    </row>
+    <row r="186" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I186">
+        <v>51192</v>
+      </c>
+      <c r="K186">
+        <v>5</v>
+      </c>
+      <c r="L186" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M186">
+        <v>6000</v>
+      </c>
+      <c r="W186">
+        <v>211022</v>
+      </c>
+    </row>
+    <row r="187" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I187">
+        <v>51191</v>
+      </c>
+      <c r="K187">
+        <v>5</v>
+      </c>
+      <c r="L187" s="4">
+        <v>32</v>
+      </c>
+      <c r="M187">
+        <v>6000</v>
+      </c>
+      <c r="W187">
+        <v>211021</v>
+      </c>
+    </row>
+    <row r="188" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I188">
+        <v>51191</v>
+      </c>
+      <c r="K188">
+        <v>5</v>
+      </c>
+      <c r="L188" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M188">
+        <v>6000</v>
+      </c>
+      <c r="W188">
+        <v>211021</v>
+      </c>
+    </row>
+    <row r="189" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I189">
+        <v>51189</v>
+      </c>
+      <c r="K189">
+        <v>5</v>
+      </c>
+      <c r="L189" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M189">
+        <v>6000</v>
+      </c>
+      <c r="W189">
+        <v>211019</v>
+      </c>
+    </row>
+    <row r="190" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I190">
+        <v>51184</v>
+      </c>
+      <c r="K190">
+        <v>5</v>
+      </c>
+      <c r="L190" s="4">
+        <v>32</v>
+      </c>
+      <c r="M190">
+        <v>6000</v>
+      </c>
+      <c r="W190">
+        <v>211018</v>
+      </c>
+    </row>
+    <row r="191" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I191">
+        <v>51184</v>
+      </c>
+      <c r="K191">
+        <v>5</v>
+      </c>
+      <c r="L191" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M191">
+        <v>6000</v>
+      </c>
+      <c r="W191">
+        <v>211018</v>
+      </c>
+    </row>
+    <row r="192" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I192">
+        <v>51182</v>
+      </c>
+      <c r="K192">
+        <v>5</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M192">
+        <v>6000</v>
+      </c>
+      <c r="W192">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="193" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I193">
+        <v>51182</v>
+      </c>
+      <c r="K193">
+        <v>5</v>
+      </c>
+      <c r="L193" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M193">
+        <v>6000</v>
+      </c>
+      <c r="W193">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="194" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I194">
+        <v>51182</v>
+      </c>
+      <c r="K194">
+        <v>5</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M194">
+        <v>6000</v>
+      </c>
+      <c r="W194">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="195" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I195">
+        <v>51182</v>
+      </c>
+      <c r="K195">
+        <v>5</v>
+      </c>
+      <c r="L195" s="4">
+        <v>32</v>
+      </c>
+      <c r="M195">
+        <v>6000</v>
+      </c>
+      <c r="W195">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="196" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I196">
+        <v>51181</v>
+      </c>
+      <c r="K196">
+        <v>5</v>
+      </c>
+      <c r="L196" s="4">
+        <v>32</v>
+      </c>
+      <c r="M196">
+        <v>6000</v>
+      </c>
+      <c r="W196">
+        <v>211015</v>
+      </c>
+    </row>
+    <row r="197" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I197">
+        <v>51181</v>
+      </c>
+      <c r="K197">
+        <v>5</v>
+      </c>
+      <c r="L197" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M197">
+        <v>6000</v>
+      </c>
+      <c r="W197">
+        <v>211015</v>
+      </c>
+    </row>
+    <row r="198" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I198">
+        <v>51180</v>
+      </c>
+      <c r="K198">
+        <v>5</v>
+      </c>
+      <c r="L198" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M198">
+        <v>6000</v>
+      </c>
+      <c r="W198">
+        <v>211014</v>
+      </c>
+    </row>
+    <row r="199" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I199">
+        <v>51164</v>
+      </c>
+      <c r="K199">
+        <v>5</v>
+      </c>
+      <c r="L199" s="4">
+        <v>18</v>
+      </c>
+      <c r="M199">
+        <v>6000</v>
+      </c>
+      <c r="W199">
+        <v>212006</v>
+      </c>
+    </row>
+    <row r="200" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I200">
+        <v>51164</v>
+      </c>
+      <c r="K200">
+        <v>5</v>
+      </c>
+      <c r="L200" s="4">
+        <v>32</v>
+      </c>
+      <c r="M200">
+        <v>6000</v>
+      </c>
+      <c r="W200">
+        <v>212006</v>
+      </c>
+    </row>
+    <row r="201" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I201">
+        <v>51163</v>
+      </c>
+      <c r="K201">
+        <v>5</v>
+      </c>
+      <c r="L201" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M201">
+        <v>6000</v>
+      </c>
+      <c r="W201">
+        <v>212005</v>
+      </c>
+    </row>
+    <row r="202" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I202">
+        <v>51163</v>
+      </c>
+      <c r="K202">
+        <v>5</v>
+      </c>
+      <c r="L202" s="4">
+        <v>32</v>
+      </c>
+      <c r="M202">
+        <v>6000</v>
+      </c>
+      <c r="W202">
+        <v>212005</v>
+      </c>
+    </row>
+    <row r="203" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I203">
+        <v>51163</v>
+      </c>
+      <c r="K203">
+        <v>5</v>
+      </c>
+      <c r="L203" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M203">
+        <v>6000</v>
+      </c>
+      <c r="W203">
+        <v>212005</v>
+      </c>
+    </row>
+    <row r="204" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I204">
+        <v>51163</v>
+      </c>
+      <c r="K204">
+        <v>5</v>
+      </c>
+      <c r="L204" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M204">
+        <v>6000</v>
+      </c>
+      <c r="W204">
+        <v>212005</v>
+      </c>
+    </row>
+    <row r="205" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I205">
+        <v>51133</v>
+      </c>
+      <c r="K205">
+        <v>5</v>
+      </c>
+      <c r="L205" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M205">
+        <v>6000</v>
+      </c>
+      <c r="W205">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="206" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I206">
+        <v>51133</v>
+      </c>
+      <c r="K206">
+        <v>5</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M206">
+        <v>6000</v>
+      </c>
+      <c r="W206">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="207" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I207">
+        <v>51133</v>
+      </c>
+      <c r="K207">
+        <v>5</v>
+      </c>
+      <c r="L207" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M207">
+        <v>6000</v>
+      </c>
+      <c r="W207">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="208" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I208">
+        <v>51132</v>
+      </c>
+      <c r="K208">
+        <v>5</v>
+      </c>
+      <c r="L208" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M208">
+        <v>6000</v>
+      </c>
+      <c r="W208">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="209" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I209">
+        <v>51132</v>
+      </c>
+      <c r="K209" t="s">
+        <v>30</v>
+      </c>
+      <c r="L209" s="4">
+        <v>32</v>
+      </c>
+      <c r="M209">
+        <v>6000</v>
+      </c>
+      <c r="W209">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="210" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I210">
+        <v>51132</v>
+      </c>
+      <c r="K210">
+        <v>5</v>
+      </c>
+      <c r="L210" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M210">
+        <v>6000</v>
+      </c>
+      <c r="W210">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="211" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I211">
+        <v>51111</v>
+      </c>
+      <c r="K211">
+        <v>5</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M211">
+        <v>6000</v>
+      </c>
+      <c r="W211">
+        <v>210015</v>
+      </c>
+    </row>
+    <row r="212" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I212">
+        <v>51111</v>
+      </c>
+      <c r="K212">
+        <v>5</v>
+      </c>
+      <c r="L212" s="4">
+        <v>32</v>
+      </c>
+      <c r="M212">
+        <v>6000</v>
+      </c>
+      <c r="W212">
+        <v>210015</v>
+      </c>
+    </row>
+    <row r="213" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I213">
+        <v>51102</v>
+      </c>
+      <c r="K213">
+        <v>5</v>
+      </c>
+      <c r="L213" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M213">
+        <v>6000</v>
+      </c>
+      <c r="W213">
+        <v>250034</v>
+      </c>
+    </row>
+    <row r="214" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I214">
+        <v>51102</v>
+      </c>
+      <c r="K214">
+        <v>5</v>
+      </c>
+      <c r="L214" s="4">
+        <v>32</v>
+      </c>
+      <c r="M214">
+        <v>6000</v>
+      </c>
+      <c r="W214">
+        <v>250034</v>
+      </c>
+    </row>
+    <row r="215" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I215">
+        <v>51074</v>
+      </c>
+      <c r="K215">
+        <v>5</v>
+      </c>
+      <c r="L215" s="4">
+        <v>40</v>
+      </c>
+      <c r="M215">
+        <v>6000</v>
+      </c>
+      <c r="W215">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="216" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I216">
+        <v>51074</v>
+      </c>
+      <c r="K216">
+        <v>5</v>
+      </c>
+      <c r="L216" s="4">
+        <v>38</v>
+      </c>
+      <c r="M216">
+        <v>6000</v>
+      </c>
+      <c r="W216">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="217" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I217">
+        <v>51074</v>
+      </c>
+      <c r="K217">
+        <v>5</v>
+      </c>
+      <c r="L217" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M217">
+        <v>6000</v>
+      </c>
+      <c r="W217">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="218" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I218">
+        <v>51071</v>
+      </c>
+      <c r="K218">
+        <v>5</v>
+      </c>
+      <c r="L218" s="4">
+        <v>40</v>
+      </c>
+      <c r="M218">
+        <v>6000</v>
+      </c>
+      <c r="W218">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="219" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I219">
+        <v>51071</v>
+      </c>
+      <c r="K219">
+        <v>5</v>
+      </c>
+      <c r="L219" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M219">
+        <v>6000</v>
+      </c>
+      <c r="W219">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="220" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I220">
+        <v>51071</v>
+      </c>
+      <c r="K220">
+        <v>5</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M220">
+        <v>3500</v>
+      </c>
+      <c r="W220">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="221" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I221">
+        <v>51071</v>
+      </c>
+      <c r="K221">
+        <v>5</v>
+      </c>
+      <c r="L221" s="4">
+        <v>38</v>
+      </c>
+      <c r="M221">
+        <v>6000</v>
+      </c>
+      <c r="W221">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="222" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I222">
+        <v>51071</v>
+      </c>
+      <c r="K222">
+        <v>5</v>
+      </c>
+      <c r="L222" s="4">
+        <v>32</v>
+      </c>
+      <c r="M222">
+        <v>6000</v>
+      </c>
+      <c r="W222">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="223" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I223">
+        <v>51071</v>
+      </c>
+      <c r="K223">
+        <v>5</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M223">
+        <v>6000</v>
+      </c>
+      <c r="W223">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="224" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I224">
+        <v>51071</v>
+      </c>
+      <c r="K224">
+        <v>5</v>
+      </c>
+      <c r="L224" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M224">
+        <v>6000</v>
+      </c>
+      <c r="W224">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="225" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I225">
+        <v>51050</v>
+      </c>
+      <c r="K225">
+        <v>5</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M225">
+        <v>6000</v>
+      </c>
+      <c r="W225">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="226" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I226">
+        <v>51050</v>
+      </c>
+      <c r="K226">
+        <v>5</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M226">
+        <v>6000</v>
+      </c>
+      <c r="W226">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="227" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I227">
+        <v>51050</v>
+      </c>
+      <c r="K227">
+        <v>5</v>
+      </c>
+      <c r="L227" s="4">
+        <v>32</v>
+      </c>
+      <c r="M227">
+        <v>6000</v>
+      </c>
+      <c r="W227">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="228" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I228">
+        <v>51050</v>
+      </c>
+      <c r="K228">
+        <v>5</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M228">
+        <v>6000</v>
+      </c>
+      <c r="W228">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="229" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I229">
+        <v>27666</v>
+      </c>
+      <c r="K229">
+        <v>5</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M229">
+        <v>6000</v>
+      </c>
+      <c r="W229">
+        <v>317704</v>
+      </c>
+    </row>
+    <row r="230" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I230">
+        <v>18923</v>
+      </c>
+      <c r="K230">
+        <v>5</v>
+      </c>
+      <c r="L230" s="4">
+        <v>32</v>
+      </c>
+      <c r="M230">
+        <v>6000</v>
+      </c>
+      <c r="W230">
+        <v>308904</v>
+      </c>
+    </row>
+    <row r="231" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I231">
+        <v>18454</v>
+      </c>
+      <c r="K231">
+        <v>5</v>
+      </c>
+      <c r="L231" s="4">
+        <v>19</v>
+      </c>
+      <c r="M231">
+        <v>3500</v>
+      </c>
+      <c r="W231">
+        <v>308527</v>
+      </c>
+    </row>
+    <row r="232" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I232">
+        <v>80250</v>
+      </c>
+      <c r="K232">
+        <v>5</v>
+      </c>
+      <c r="L232" s="4">
+        <v>69</v>
+      </c>
+      <c r="M232">
+        <v>6000</v>
+      </c>
+      <c r="W232">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="233" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I233">
+        <v>80250</v>
+      </c>
+      <c r="K233">
+        <v>5</v>
+      </c>
+      <c r="L233" s="4">
+        <v>89</v>
+      </c>
+      <c r="M233">
+        <v>2020</v>
+      </c>
+      <c r="W233">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="234" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I234">
+        <v>80250</v>
+      </c>
+      <c r="K234">
+        <v>5</v>
+      </c>
+      <c r="L234" s="4">
+        <v>145</v>
+      </c>
+      <c r="M234">
+        <v>2020</v>
+      </c>
+      <c r="W234">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="235" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I235">
+        <v>80250</v>
+      </c>
+      <c r="K235">
+        <v>5</v>
+      </c>
+      <c r="L235" s="4">
+        <v>10</v>
+      </c>
+      <c r="M235">
+        <v>3150</v>
+      </c>
+      <c r="W235">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="236" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I236">
+        <v>80250</v>
+      </c>
+      <c r="K236">
+        <v>5</v>
+      </c>
+      <c r="L236" s="4">
+        <v>10</v>
+      </c>
+      <c r="M236">
+        <v>3250</v>
+      </c>
+      <c r="W236">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="237" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I237">
+        <v>80226</v>
+      </c>
+      <c r="K237">
+        <v>5</v>
+      </c>
+      <c r="L237" s="4">
+        <v>10</v>
+      </c>
+      <c r="M237">
+        <v>4060</v>
+      </c>
+      <c r="W237">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="238" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I238">
+        <v>80226</v>
+      </c>
+      <c r="K238">
+        <v>5</v>
+      </c>
+      <c r="L238" s="4">
+        <v>10</v>
+      </c>
+      <c r="M238">
+        <v>6000</v>
+      </c>
+      <c r="W238">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="239" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I239">
+        <v>70180</v>
+      </c>
+      <c r="K239">
+        <v>5</v>
+      </c>
+      <c r="L239" s="4">
+        <v>100</v>
+      </c>
+      <c r="M239">
+        <v>6000</v>
+      </c>
+      <c r="W239">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="240" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I240">
+        <v>70180</v>
+      </c>
+      <c r="K240">
+        <v>5</v>
+      </c>
+      <c r="L240" s="4">
+        <v>77</v>
+      </c>
+      <c r="M240">
+        <v>6000</v>
+      </c>
+      <c r="W240">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="241" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I241">
+        <v>70175</v>
+      </c>
+      <c r="K241">
+        <v>5</v>
+      </c>
+      <c r="L241" s="4">
+        <v>100</v>
+      </c>
+      <c r="M241">
+        <v>6100</v>
+      </c>
+      <c r="W241">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="242" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I242">
+        <v>70175</v>
+      </c>
+      <c r="K242">
+        <v>5</v>
+      </c>
+      <c r="L242" s="4">
+        <v>69</v>
+      </c>
+      <c r="M242">
+        <v>6000</v>
+      </c>
+      <c r="W242">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="243" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I243">
+        <v>70175</v>
+      </c>
+      <c r="K243">
+        <v>5</v>
+      </c>
+      <c r="L243" s="4">
+        <v>77</v>
+      </c>
+      <c r="M243">
+        <v>6000</v>
+      </c>
+      <c r="W243">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="244" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I244">
+        <v>70170</v>
+      </c>
+      <c r="K244">
+        <v>5</v>
+      </c>
+      <c r="L244" s="4">
+        <v>100</v>
+      </c>
+      <c r="M244">
+        <v>3800</v>
+      </c>
+      <c r="W244">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="245" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I245">
+        <v>70170</v>
+      </c>
+      <c r="K245">
+        <v>5</v>
+      </c>
+      <c r="L245" s="4">
+        <v>100</v>
+      </c>
+      <c r="M245">
+        <v>4000</v>
+      </c>
+      <c r="W245">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="246" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I246">
+        <v>70170</v>
+      </c>
+      <c r="K246">
+        <v>5</v>
+      </c>
+      <c r="L246" s="4">
+        <v>69</v>
+      </c>
+      <c r="M246">
+        <v>6000</v>
+      </c>
+      <c r="W246">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="247" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I247">
+        <v>70170</v>
+      </c>
+      <c r="K247">
+        <v>5</v>
+      </c>
+      <c r="L247" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M247">
+        <v>3050</v>
+      </c>
+      <c r="W247">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="248" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I248">
+        <v>70170</v>
+      </c>
+      <c r="K248">
+        <v>5</v>
+      </c>
+      <c r="L248" s="4">
+        <v>77</v>
+      </c>
+      <c r="M248">
+        <v>6000</v>
+      </c>
+      <c r="W248">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="249" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I249">
+        <v>51133</v>
+      </c>
+      <c r="K249">
+        <v>5</v>
+      </c>
+      <c r="L249" s="4">
+        <v>83</v>
+      </c>
+      <c r="M249">
+        <v>6000</v>
+      </c>
+      <c r="W249">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="250" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I250">
+        <v>51132</v>
+      </c>
+      <c r="K250">
+        <v>5</v>
+      </c>
+      <c r="L250" s="4">
+        <v>83</v>
+      </c>
+      <c r="M250">
+        <v>6000</v>
+      </c>
+      <c r="W250">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="251" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I251">
+        <v>51132</v>
+      </c>
+      <c r="K251" t="s">
+        <v>30</v>
+      </c>
+      <c r="L251" s="4">
+        <v>83</v>
+      </c>
+      <c r="M251">
+        <v>6000</v>
+      </c>
+      <c r="W251">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="252" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I252">
+        <v>51129</v>
+      </c>
+      <c r="K252">
+        <v>5</v>
+      </c>
+      <c r="L252" s="4">
+        <v>83</v>
+      </c>
+      <c r="M252">
+        <v>6000</v>
+      </c>
+      <c r="W252">
+        <v>214012</v>
+      </c>
+    </row>
+    <row r="253" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I253">
+        <v>51128</v>
+      </c>
+      <c r="K253">
+        <v>5</v>
+      </c>
+      <c r="L253" s="4">
+        <v>83</v>
+      </c>
+      <c r="M253">
+        <v>6000</v>
+      </c>
+      <c r="W253">
+        <v>214011</v>
+      </c>
+    </row>
+    <row r="254" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I254">
+        <v>27696</v>
+      </c>
+      <c r="K254">
+        <v>5</v>
+      </c>
+      <c r="L254" s="4">
+        <v>13</v>
+      </c>
+      <c r="M254">
+        <v>5700</v>
+      </c>
+      <c r="W254">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="255" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I255">
+        <v>27696</v>
+      </c>
+      <c r="K255">
+        <v>5</v>
+      </c>
+      <c r="L255" s="4">
+        <v>13</v>
+      </c>
+      <c r="M255">
+        <v>7100</v>
+      </c>
+      <c r="W255">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="256" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I256">
+        <v>27696</v>
+      </c>
+      <c r="K256">
+        <v>5</v>
+      </c>
+      <c r="L256" s="4">
+        <v>13</v>
+      </c>
+      <c r="M256">
+        <v>4250</v>
+      </c>
+      <c r="W256">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="257" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I257">
+        <v>27696</v>
+      </c>
+      <c r="K257">
+        <v>5</v>
+      </c>
+      <c r="L257" s="4">
+        <v>85</v>
+      </c>
+      <c r="M257">
+        <v>5700</v>
+      </c>
+      <c r="W257">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="258" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I258">
+        <v>27630</v>
+      </c>
+      <c r="K258">
+        <v>5</v>
+      </c>
+      <c r="L258" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M258">
+        <v>4300</v>
+      </c>
+      <c r="W258">
+        <v>317702</v>
+      </c>
+    </row>
+    <row r="259" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I259">
+        <v>27630</v>
+      </c>
+      <c r="K259">
+        <v>5</v>
+      </c>
+      <c r="L259" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M259">
+        <v>6000</v>
+      </c>
+      <c r="W259">
+        <v>317702</v>
+      </c>
+    </row>
+    <row r="260" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I260">
+        <v>27630</v>
+      </c>
+      <c r="K260">
+        <v>5</v>
+      </c>
+      <c r="L260" s="4">
+        <v>13</v>
+      </c>
+      <c r="M260">
+        <v>6000</v>
+      </c>
+      <c r="W260">
+        <v>317702</v>
+      </c>
+    </row>
+    <row r="261" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I261">
+        <v>27630</v>
+      </c>
+      <c r="K261">
+        <v>5</v>
+      </c>
+      <c r="L261" s="4">
+        <v>69</v>
+      </c>
+      <c r="M261">
+        <v>4550</v>
+      </c>
+      <c r="W261">
+        <v>317702</v>
+      </c>
+    </row>
+    <row r="262" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I262">
+        <v>27582</v>
+      </c>
+      <c r="K262">
+        <v>5</v>
+      </c>
+      <c r="L262" s="4">
+        <v>100</v>
+      </c>
+      <c r="M262">
+        <v>5050</v>
+      </c>
+      <c r="W262">
+        <v>317636</v>
+      </c>
+    </row>
+    <row r="263" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I263">
+        <v>27561</v>
+      </c>
+      <c r="K263">
+        <v>5</v>
+      </c>
+      <c r="L263" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M263">
+        <v>5870</v>
+      </c>
+      <c r="W263">
+        <v>317636</v>
+      </c>
+    </row>
+    <row r="264" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I264">
+        <v>18926</v>
+      </c>
+      <c r="K264">
+        <v>5</v>
+      </c>
+      <c r="L264" s="4">
+        <v>85</v>
+      </c>
+      <c r="M264">
+        <v>6000</v>
+      </c>
+      <c r="W264">
+        <v>308900</v>
+      </c>
+    </row>
+    <row r="265" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I265">
+        <v>18923</v>
+      </c>
+      <c r="K265">
+        <v>5</v>
+      </c>
+      <c r="L265" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M265">
+        <v>3000</v>
+      </c>
+      <c r="W265">
+        <v>308904</v>
+      </c>
+    </row>
+    <row r="266" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I266">
+        <v>18923</v>
+      </c>
+      <c r="K266">
+        <v>5</v>
+      </c>
+      <c r="L266" s="4">
+        <v>126</v>
+      </c>
+      <c r="M266">
+        <v>4000</v>
+      </c>
+      <c r="W266">
+        <v>308904</v>
+      </c>
+    </row>
+    <row r="267" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I267">
+        <v>18923</v>
+      </c>
+      <c r="K267">
+        <v>5</v>
+      </c>
+      <c r="L267" s="4">
+        <v>126</v>
+      </c>
+      <c r="M267">
+        <v>3100</v>
+      </c>
+      <c r="W267">
+        <v>308904</v>
+      </c>
+    </row>
+    <row r="268" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I268">
+        <v>18333</v>
+      </c>
+      <c r="K268">
+        <v>5</v>
+      </c>
+      <c r="L268" s="4">
+        <v>126</v>
+      </c>
+      <c r="M268">
+        <v>4700</v>
+      </c>
+      <c r="W268">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="269" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I269">
+        <v>18333</v>
+      </c>
+      <c r="K269">
+        <v>5</v>
+      </c>
+      <c r="L269" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M269">
+        <v>6000</v>
+      </c>
+      <c r="W269">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="270" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I270">
+        <v>18333</v>
+      </c>
+      <c r="K270">
+        <v>5</v>
+      </c>
+      <c r="L270" s="4">
+        <v>87</v>
+      </c>
+      <c r="M270">
+        <v>3100</v>
+      </c>
+      <c r="W270">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="271" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I271">
+        <v>18333</v>
+      </c>
+      <c r="K271">
+        <v>5</v>
+      </c>
+      <c r="L271" s="4">
+        <v>100</v>
+      </c>
+      <c r="M271">
+        <v>3100</v>
+      </c>
+      <c r="W271">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="272" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I272">
+        <v>18333</v>
+      </c>
+      <c r="K272">
+        <v>5</v>
+      </c>
+      <c r="L272" s="4">
+        <v>84</v>
+      </c>
+      <c r="M272">
+        <v>5050</v>
+      </c>
+      <c r="W272">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="273" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I273">
+        <v>18333</v>
+      </c>
+      <c r="K273">
+        <v>5</v>
+      </c>
+      <c r="L273" s="4">
+        <v>84</v>
+      </c>
+      <c r="M273">
+        <v>4650</v>
+      </c>
+      <c r="W273">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="274" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I274">
+        <v>18333</v>
+      </c>
+      <c r="K274">
+        <v>5</v>
+      </c>
+      <c r="L274" s="4">
+        <v>145</v>
+      </c>
+      <c r="M274">
+        <v>6000</v>
+      </c>
+      <c r="W274">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="275" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I275">
+        <v>18333</v>
+      </c>
+      <c r="K275">
+        <v>5</v>
+      </c>
+      <c r="L275" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M275">
+        <v>5050</v>
+      </c>
+      <c r="W275">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="276" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I276">
+        <v>18333</v>
+      </c>
+      <c r="K276">
+        <v>5</v>
+      </c>
+      <c r="L276" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M276">
+        <v>4640</v>
+      </c>
+      <c r="W276">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="277" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I277">
+        <v>11407</v>
+      </c>
+      <c r="K277">
+        <v>5</v>
+      </c>
+      <c r="L277" s="4">
+        <v>75</v>
+      </c>
+      <c r="M277">
+        <v>4500</v>
+      </c>
+      <c r="W277">
+        <v>301506</v>
+      </c>
+    </row>
+    <row r="278" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I278">
+        <v>11407</v>
+      </c>
+      <c r="K278">
+        <v>5</v>
+      </c>
+      <c r="L278" s="4">
+        <v>102</v>
+      </c>
+      <c r="M278">
+        <v>6000</v>
+      </c>
+      <c r="W278">
+        <v>301506</v>
+      </c>
+    </row>
+    <row r="279" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I279">
+        <v>11407</v>
+      </c>
+      <c r="K279">
+        <v>5</v>
+      </c>
+      <c r="L279" s="4">
+        <v>125</v>
+      </c>
+      <c r="M279">
+        <v>6000</v>
+      </c>
+      <c r="W279">
+        <v>301506</v>
+      </c>
+    </row>
+    <row r="280" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I280" t="s">
+        <v>27</v>
+      </c>
+      <c r="K280">
+        <v>5</v>
+      </c>
+      <c r="L280" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M280">
+        <v>6000</v>
+      </c>
+      <c r="W280">
+        <v>241007</v>
+      </c>
+    </row>
+    <row r="281" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I281" t="s">
+        <v>27</v>
+      </c>
+      <c r="K281">
+        <v>4</v>
+      </c>
+      <c r="L281" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M281">
+        <v>6000</v>
+      </c>
+      <c r="W281">
+        <v>241007</v>
+      </c>
+    </row>
+    <row r="282" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I282" t="s">
+        <v>28</v>
+      </c>
+      <c r="K282">
+        <v>5</v>
+      </c>
+      <c r="L282" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M282">
+        <v>6000</v>
+      </c>
+      <c r="W282">
+        <v>233005</v>
+      </c>
+    </row>
+    <row r="283" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>26</v>
+      </c>
+      <c r="K283">
+        <v>5</v>
+      </c>
+      <c r="L283" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M283">
+        <v>6000</v>
+      </c>
+      <c r="W283">
+        <v>233004</v>
+      </c>
+    </row>
+    <row r="284" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I284" t="s">
+        <v>29</v>
+      </c>
+      <c r="K284">
+        <v>5</v>
+      </c>
+      <c r="L284" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M284">
+        <v>6000</v>
+      </c>
+      <c r="W284">
+        <v>250009</v>
+      </c>
+    </row>
+    <row r="285" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I285" t="s">
+        <v>24</v>
+      </c>
+      <c r="K285">
+        <v>5</v>
+      </c>
+      <c r="L285" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M285">
+        <v>6000</v>
+      </c>
+      <c r="W285">
+        <v>309211</v>
+      </c>
+    </row>
+    <row r="286" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
+        <v>25</v>
+      </c>
+      <c r="K286">
+        <v>5</v>
+      </c>
+      <c r="L286" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M286">
+        <v>6000</v>
+      </c>
+      <c r="W286">
+        <v>309210</v>
+      </c>
+    </row>
+    <row r="287" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I287">
+        <v>80391</v>
+      </c>
+      <c r="K287">
+        <v>5</v>
+      </c>
+      <c r="L287" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M287">
+        <v>4700</v>
+      </c>
+      <c r="W287">
+        <v>100318</v>
+      </c>
+    </row>
+    <row r="288" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I288">
+        <v>80341</v>
+      </c>
+      <c r="K288">
+        <v>5</v>
+      </c>
+      <c r="L288" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M288">
+        <v>6000</v>
+      </c>
+      <c r="W288">
+        <v>100317</v>
+      </c>
+    </row>
+    <row r="289" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I289">
+        <v>80314</v>
+      </c>
+      <c r="K289">
+        <v>5</v>
+      </c>
+      <c r="L289" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M289">
+        <v>3700</v>
+      </c>
+      <c r="W289">
+        <v>100316</v>
+      </c>
+    </row>
+    <row r="290" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I290">
+        <v>80250</v>
+      </c>
+      <c r="K290">
+        <v>5</v>
+      </c>
+      <c r="L290" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M290">
+        <v>6000</v>
+      </c>
+      <c r="W290">
+        <v>100315</v>
+      </c>
+    </row>
+    <row r="291" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I291">
+        <v>80226</v>
+      </c>
+      <c r="K291">
+        <v>5</v>
+      </c>
+      <c r="L291" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M291">
+        <v>6000</v>
+      </c>
+      <c r="W291">
+        <v>100314</v>
+      </c>
+    </row>
+    <row r="292" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I292">
+        <v>80177</v>
+      </c>
+      <c r="K292">
+        <v>5</v>
+      </c>
+      <c r="L292" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M292">
+        <v>6100</v>
+      </c>
+      <c r="W292">
+        <v>100313</v>
+      </c>
+    </row>
+    <row r="293" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I293">
+        <v>80159</v>
+      </c>
+      <c r="K293">
+        <v>5</v>
+      </c>
+      <c r="L293" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M293">
+        <v>6700</v>
+      </c>
+      <c r="W293">
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="294" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I294">
+        <v>80159</v>
+      </c>
+      <c r="K294">
+        <v>5</v>
+      </c>
+      <c r="L294" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M294">
+        <v>5010</v>
+      </c>
+      <c r="W294">
+        <v>100312</v>
+      </c>
+    </row>
+    <row r="295" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I295">
+        <v>80158</v>
+      </c>
+      <c r="K295">
+        <v>5</v>
+      </c>
+      <c r="L295" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M295">
+        <v>6700</v>
+      </c>
+      <c r="W295">
+        <v>100311</v>
+      </c>
+    </row>
+    <row r="296" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I296">
+        <v>80158</v>
+      </c>
+      <c r="K296">
+        <v>5</v>
+      </c>
+      <c r="L296" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M296">
+        <v>5010</v>
+      </c>
+      <c r="W296">
+        <v>100311</v>
+      </c>
+    </row>
+    <row r="297" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I297">
+        <v>80000</v>
+      </c>
+      <c r="K297">
+        <v>5</v>
+      </c>
+      <c r="L297" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M297">
+        <v>6000</v>
+      </c>
+      <c r="W297">
+        <v>235009</v>
+      </c>
+    </row>
+    <row r="298" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I298">
+        <v>70273</v>
+      </c>
+      <c r="K298">
+        <v>5</v>
+      </c>
+      <c r="L298" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M298">
+        <v>6000</v>
+      </c>
+      <c r="W298">
+        <v>204017</v>
+      </c>
+    </row>
+    <row r="299" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I299">
+        <v>70271</v>
+      </c>
+      <c r="K299">
+        <v>5</v>
+      </c>
+      <c r="L299" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M299">
+        <v>6000</v>
+      </c>
+      <c r="W299">
+        <v>222052</v>
+      </c>
+    </row>
+    <row r="300" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I300">
+        <v>70267</v>
+      </c>
+      <c r="K300">
+        <v>5</v>
+      </c>
+      <c r="L300" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M300">
+        <v>6000</v>
+      </c>
+      <c r="W300">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="301" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I301">
+        <v>70264</v>
+      </c>
+      <c r="K301">
+        <v>5</v>
+      </c>
+      <c r="L301" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M301">
+        <v>6000</v>
+      </c>
+      <c r="W301">
+        <v>204016</v>
+      </c>
+    </row>
+    <row r="302" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I302">
+        <v>70264</v>
+      </c>
+      <c r="K302">
+        <v>5</v>
+      </c>
+      <c r="L302" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M302">
+        <v>3500</v>
+      </c>
+      <c r="W302">
+        <v>204016</v>
+      </c>
+    </row>
+    <row r="303" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I303">
+        <v>70258</v>
+      </c>
+      <c r="K303">
+        <v>5</v>
+      </c>
+      <c r="L303" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M303">
+        <v>6000</v>
+      </c>
+      <c r="W303">
+        <v>209023</v>
+      </c>
+    </row>
+    <row r="304" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I304">
+        <v>70257</v>
+      </c>
+      <c r="K304">
+        <v>5</v>
+      </c>
+      <c r="L304" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M304">
+        <v>6000</v>
+      </c>
+      <c r="W304">
+        <v>250037</v>
+      </c>
+    </row>
+    <row r="305" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I305">
+        <v>70251</v>
+      </c>
+      <c r="K305">
+        <v>5</v>
+      </c>
+      <c r="L305" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M305">
+        <v>6000</v>
+      </c>
+      <c r="W305">
+        <v>204015</v>
+      </c>
+    </row>
+    <row r="306" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I306">
+        <v>70249</v>
+      </c>
+      <c r="K306">
+        <v>5</v>
+      </c>
+      <c r="L306" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M306">
+        <v>6000</v>
+      </c>
+      <c r="W306">
+        <v>204014</v>
+      </c>
+    </row>
+    <row r="307" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I307">
+        <v>70248</v>
+      </c>
+      <c r="K307">
+        <v>5</v>
+      </c>
+      <c r="L307" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M307">
+        <v>6000</v>
+      </c>
+      <c r="W307">
+        <v>204013</v>
+      </c>
+    </row>
+    <row r="308" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I308">
+        <v>70247</v>
+      </c>
+      <c r="K308">
+        <v>5</v>
+      </c>
+      <c r="L308" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M308">
+        <v>6000</v>
+      </c>
+      <c r="W308">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="309" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I309">
+        <v>70247</v>
+      </c>
+      <c r="K309">
+        <v>5</v>
+      </c>
+      <c r="L309" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M309">
+        <v>3500</v>
+      </c>
+      <c r="W309">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="310" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I310">
+        <v>70246</v>
+      </c>
+      <c r="K310">
+        <v>5</v>
+      </c>
+      <c r="L310" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M310">
+        <v>6000</v>
+      </c>
+      <c r="W310">
+        <v>204011</v>
+      </c>
+    </row>
+    <row r="311" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I311">
+        <v>70239</v>
+      </c>
+      <c r="K311">
+        <v>5</v>
+      </c>
+      <c r="L311" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M311">
+        <v>6000</v>
+      </c>
+      <c r="W311">
+        <v>229027</v>
+      </c>
+    </row>
+    <row r="312" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I312">
+        <v>70221</v>
+      </c>
+      <c r="K312">
+        <v>5</v>
+      </c>
+      <c r="L312" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M312">
+        <v>6000</v>
+      </c>
+      <c r="W312">
+        <v>209022</v>
+      </c>
+    </row>
+    <row r="313" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I313">
+        <v>70221</v>
+      </c>
+      <c r="K313">
+        <v>4</v>
+      </c>
+      <c r="L313" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M313">
+        <v>6000</v>
+      </c>
+      <c r="W313">
+        <v>209022</v>
+      </c>
+    </row>
+    <row r="314" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I314">
+        <v>70219</v>
+      </c>
+      <c r="K314">
+        <v>5</v>
+      </c>
+      <c r="L314" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M314">
+        <v>6000</v>
+      </c>
+      <c r="W314">
+        <v>202017</v>
+      </c>
+    </row>
+    <row r="315" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I315">
+        <v>70218</v>
+      </c>
+      <c r="K315">
+        <v>5</v>
+      </c>
+      <c r="L315" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M315">
+        <v>6000</v>
+      </c>
+      <c r="W315">
+        <v>202015</v>
+      </c>
+    </row>
+    <row r="316" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I316">
+        <v>70217</v>
+      </c>
+      <c r="K316">
+        <v>5</v>
+      </c>
+      <c r="L316" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M316">
+        <v>6000</v>
+      </c>
+      <c r="W316">
+        <v>202014</v>
+      </c>
+    </row>
+    <row r="317" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I317">
+        <v>70216</v>
+      </c>
+      <c r="K317">
+        <v>5</v>
+      </c>
+      <c r="L317" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M317">
+        <v>6000</v>
+      </c>
+      <c r="W317">
+        <v>202013</v>
+      </c>
+    </row>
+    <row r="318" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I318">
+        <v>70215</v>
+      </c>
+      <c r="K318">
+        <v>5</v>
+      </c>
+      <c r="L318" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M318">
+        <v>6000</v>
+      </c>
+      <c r="W318">
+        <v>209020</v>
+      </c>
+    </row>
+    <row r="319" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I319">
+        <v>70214</v>
+      </c>
+      <c r="K319">
+        <v>5</v>
+      </c>
+      <c r="L319" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M319">
+        <v>6000</v>
+      </c>
+      <c r="W319">
+        <v>243023</v>
+      </c>
+    </row>
+    <row r="320" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I320">
+        <v>70213</v>
+      </c>
+      <c r="K320">
+        <v>5</v>
+      </c>
+      <c r="L320" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M320">
+        <v>6000</v>
+      </c>
+      <c r="W320">
+        <v>209012</v>
+      </c>
+    </row>
+    <row r="321" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I321">
+        <v>70210</v>
+      </c>
+      <c r="K321">
+        <v>5</v>
+      </c>
+      <c r="L321" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M321">
+        <v>6000</v>
+      </c>
+      <c r="W321">
+        <v>202015</v>
+      </c>
+    </row>
+    <row r="322" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I322">
+        <v>70205</v>
+      </c>
+      <c r="K322">
+        <v>5</v>
+      </c>
+      <c r="L322" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M322">
+        <v>6000</v>
+      </c>
+      <c r="W322">
+        <v>243022</v>
+      </c>
+    </row>
+    <row r="323" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I323">
+        <v>70200</v>
+      </c>
+      <c r="K323">
+        <v>5</v>
+      </c>
+      <c r="L323" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M323">
+        <v>6000</v>
+      </c>
+      <c r="W323">
+        <v>251010</v>
+      </c>
+    </row>
+    <row r="324" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I324">
+        <v>70199</v>
+      </c>
+      <c r="K324">
+        <v>5</v>
+      </c>
+      <c r="L324" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M324">
+        <v>6000</v>
+      </c>
+      <c r="W324">
+        <v>251009</v>
+      </c>
+    </row>
+    <row r="325" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I325">
+        <v>70198</v>
+      </c>
+      <c r="K325">
+        <v>5</v>
+      </c>
+      <c r="L325" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M325">
+        <v>6000</v>
+      </c>
+      <c r="W325">
+        <v>251008</v>
+      </c>
+    </row>
+    <row r="326" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I326">
+        <v>70197</v>
+      </c>
+      <c r="K326">
+        <v>5</v>
+      </c>
+      <c r="L326" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M326">
+        <v>6000</v>
+      </c>
+      <c r="W326">
+        <v>251007</v>
+      </c>
+    </row>
+    <row r="327" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I327">
+        <v>70196</v>
+      </c>
+      <c r="K327">
+        <v>5</v>
+      </c>
+      <c r="L327" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M327">
+        <v>6000</v>
+      </c>
+      <c r="W327">
+        <v>251006</v>
+      </c>
+    </row>
+    <row r="328" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I328">
+        <v>70195</v>
+      </c>
+      <c r="K328">
+        <v>5</v>
+      </c>
+      <c r="L328" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M328">
+        <v>6000</v>
+      </c>
+      <c r="W328">
+        <v>251005</v>
+      </c>
+    </row>
+    <row r="329" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I329">
+        <v>70194</v>
+      </c>
+      <c r="K329">
+        <v>5</v>
+      </c>
+      <c r="L329" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M329">
+        <v>6000</v>
+      </c>
+      <c r="W329">
+        <v>251004</v>
+      </c>
+    </row>
+    <row r="330" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I330">
+        <v>70193</v>
+      </c>
+      <c r="K330">
+        <v>5</v>
+      </c>
+      <c r="L330" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M330">
+        <v>6000</v>
+      </c>
+      <c r="W330">
+        <v>208014</v>
+      </c>
+    </row>
+    <row r="331" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I331">
+        <v>70192</v>
+      </c>
+      <c r="K331">
+        <v>5</v>
+      </c>
+      <c r="L331" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M331">
+        <v>6000</v>
+      </c>
+      <c r="W331">
+        <v>209013</v>
+      </c>
+    </row>
+    <row r="332" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I332">
+        <v>70191</v>
+      </c>
+      <c r="K332">
+        <v>5</v>
+      </c>
+      <c r="L332" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M332">
+        <v>6000</v>
+      </c>
+      <c r="W332">
+        <v>251001</v>
+      </c>
+    </row>
+    <row r="333" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I333">
+        <v>70190</v>
+      </c>
+      <c r="K333">
+        <v>5</v>
+      </c>
+      <c r="L333" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M333">
+        <v>6000</v>
+      </c>
+      <c r="W333">
+        <v>251000</v>
+      </c>
+    </row>
+    <row r="334" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I334">
+        <v>70180</v>
+      </c>
+      <c r="K334">
+        <v>5</v>
+      </c>
+      <c r="L334" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M334">
+        <v>6000</v>
+      </c>
+      <c r="W334">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="335" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I335">
+        <v>70179</v>
+      </c>
+      <c r="K335">
+        <v>5</v>
+      </c>
+      <c r="L335" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M335">
+        <v>6000</v>
+      </c>
+      <c r="W335">
+        <v>225023</v>
+      </c>
+    </row>
+    <row r="336" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I336">
+        <v>70178</v>
+      </c>
+      <c r="K336">
+        <v>5</v>
+      </c>
+      <c r="L336" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M336">
+        <v>6000</v>
+      </c>
+      <c r="W336">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="337" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I337">
+        <v>70177</v>
+      </c>
+      <c r="K337">
+        <v>5</v>
+      </c>
+      <c r="L337" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M337">
+        <v>6000</v>
+      </c>
+      <c r="W337">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="338" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I338">
+        <v>70177</v>
+      </c>
+      <c r="K338">
+        <v>5</v>
+      </c>
+      <c r="L338" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M338">
+        <v>5700</v>
+      </c>
+      <c r="W338">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="339" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I339">
+        <v>70175</v>
+      </c>
+      <c r="K339">
+        <v>5</v>
+      </c>
+      <c r="L339" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M339">
+        <v>6000</v>
+      </c>
+      <c r="W339">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="340" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I340">
+        <v>70171</v>
+      </c>
+      <c r="K340">
+        <v>5</v>
+      </c>
+      <c r="L340" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M340">
+        <v>6000</v>
+      </c>
+      <c r="W340">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="341" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I341">
+        <v>70171</v>
+      </c>
+      <c r="K341">
+        <v>5</v>
+      </c>
+      <c r="L341" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M341">
+        <v>5000</v>
+      </c>
+      <c r="W341">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="342" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I342">
+        <v>70170</v>
+      </c>
+      <c r="K342">
+        <v>5</v>
+      </c>
+      <c r="L342" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M342">
+        <v>6000</v>
+      </c>
+      <c r="W342">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="343" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I343">
+        <v>70170</v>
+      </c>
+      <c r="K343">
+        <v>5</v>
+      </c>
+      <c r="L343" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M343">
+        <v>5000</v>
+      </c>
+      <c r="W343">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="344" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I344">
+        <v>70167</v>
+      </c>
+      <c r="K344">
+        <v>5</v>
+      </c>
+      <c r="L344" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M344">
+        <v>6000</v>
+      </c>
+      <c r="W344">
+        <v>202012</v>
+      </c>
+    </row>
+    <row r="345" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I345">
+        <v>70158</v>
+      </c>
+      <c r="K345">
+        <v>5</v>
+      </c>
+      <c r="L345" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M345">
+        <v>6000</v>
+      </c>
+      <c r="W345">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="346" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I346">
+        <v>70151</v>
+      </c>
+      <c r="K346">
+        <v>5</v>
+      </c>
+      <c r="L346" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M346">
+        <v>3500</v>
+      </c>
+      <c r="W346">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="347" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I347">
+        <v>70146</v>
+      </c>
+      <c r="K347">
+        <v>5</v>
+      </c>
+      <c r="L347" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M347">
+        <v>6000</v>
+      </c>
+      <c r="W347">
+        <v>205008</v>
+      </c>
+    </row>
+    <row r="348" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I348">
+        <v>70145</v>
+      </c>
+      <c r="K348">
+        <v>5</v>
+      </c>
+      <c r="L348" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M348">
+        <v>6000</v>
+      </c>
+      <c r="W348">
+        <v>205005</v>
+      </c>
+    </row>
+    <row r="349" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I349">
+        <v>70144</v>
+      </c>
+      <c r="K349">
+        <v>5</v>
+      </c>
+      <c r="L349" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M349">
+        <v>6000</v>
+      </c>
+      <c r="W349">
+        <v>205004</v>
+      </c>
+    </row>
+    <row r="350" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I350">
+        <v>70143</v>
+      </c>
+      <c r="K350">
+        <v>5</v>
+      </c>
+      <c r="L350" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M350">
+        <v>6000</v>
+      </c>
+      <c r="W350">
+        <v>205003</v>
+      </c>
+    </row>
+    <row r="351" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I351">
+        <v>70142</v>
+      </c>
+      <c r="K351">
+        <v>5</v>
+      </c>
+      <c r="L351" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M351">
+        <v>6000</v>
+      </c>
+      <c r="W351">
+        <v>205002</v>
+      </c>
+    </row>
+    <row r="352" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I352">
+        <v>70141</v>
+      </c>
+      <c r="K352">
+        <v>5</v>
+      </c>
+      <c r="L352" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M352">
+        <v>6000</v>
+      </c>
+      <c r="W352">
+        <v>205001</v>
+      </c>
+    </row>
+    <row r="353" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I353">
+        <v>70140</v>
+      </c>
+      <c r="K353">
+        <v>5</v>
+      </c>
+      <c r="L353" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M353">
+        <v>6000</v>
+      </c>
+      <c r="W353">
+        <v>205000</v>
+      </c>
+    </row>
+    <row r="354" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I354">
+        <v>70132</v>
+      </c>
+      <c r="K354">
+        <v>5</v>
+      </c>
+      <c r="L354" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M354">
+        <v>6000</v>
+      </c>
+      <c r="W354">
+        <v>209019</v>
+      </c>
+    </row>
+    <row r="355" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I355">
+        <v>70124</v>
+      </c>
+      <c r="K355">
+        <v>5</v>
+      </c>
+      <c r="L355" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M355">
+        <v>6000</v>
+      </c>
+      <c r="W355">
+        <v>209018</v>
+      </c>
+    </row>
+    <row r="356" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I356">
+        <v>70123</v>
+      </c>
+      <c r="K356">
+        <v>5</v>
+      </c>
+      <c r="L356" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M356">
+        <v>6000</v>
+      </c>
+      <c r="W356">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="357" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I357">
+        <v>70122</v>
+      </c>
+      <c r="K357">
+        <v>5</v>
+      </c>
+      <c r="L357" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M357">
+        <v>6000</v>
+      </c>
+      <c r="W357">
+        <v>209017</v>
+      </c>
+    </row>
+    <row r="358" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I358">
+        <v>70121</v>
+      </c>
+      <c r="K358">
+        <v>5</v>
+      </c>
+      <c r="L358" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M358">
+        <v>6000</v>
+      </c>
+      <c r="W358">
+        <v>205005</v>
+      </c>
+    </row>
+    <row r="359" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I359">
+        <v>70121</v>
+      </c>
+      <c r="K359">
+        <v>5</v>
+      </c>
+      <c r="L359" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M359">
+        <v>3000</v>
+      </c>
+      <c r="W359">
+        <v>205005</v>
+      </c>
+    </row>
+    <row r="360" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I360">
+        <v>70117</v>
+      </c>
+      <c r="K360">
+        <v>5</v>
+      </c>
+      <c r="L360" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M360">
+        <v>6000</v>
+      </c>
+      <c r="W360">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="361" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I361">
+        <v>70116</v>
+      </c>
+      <c r="K361">
+        <v>5</v>
+      </c>
+      <c r="L361" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M361">
+        <v>6000</v>
+      </c>
+      <c r="W361">
+        <v>209016</v>
+      </c>
+    </row>
+    <row r="362" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I362">
+        <v>70115</v>
+      </c>
+      <c r="K362">
+        <v>5</v>
+      </c>
+      <c r="L362" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M362">
+        <v>6000</v>
+      </c>
+      <c r="W362">
+        <v>206002</v>
+      </c>
+    </row>
+    <row r="363" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I363">
+        <v>70104</v>
+      </c>
+      <c r="K363">
+        <v>5</v>
+      </c>
+      <c r="L363" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M363">
+        <v>6000</v>
+      </c>
+      <c r="W363">
+        <v>201015</v>
+      </c>
+    </row>
+    <row r="364" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I364">
+        <v>70082</v>
+      </c>
+      <c r="K364">
+        <v>5</v>
+      </c>
+      <c r="L364" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M364">
+        <v>6000</v>
+      </c>
+      <c r="W364">
+        <v>239007</v>
+      </c>
+    </row>
+    <row r="365" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I365">
+        <v>70080</v>
+      </c>
+      <c r="K365">
+        <v>5</v>
+      </c>
+      <c r="L365" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M365">
+        <v>6000</v>
+      </c>
+      <c r="W365">
+        <v>239012</v>
+      </c>
+    </row>
+    <row r="366" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I366">
+        <v>70079</v>
+      </c>
+      <c r="K366">
+        <v>5</v>
+      </c>
+      <c r="L366" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M366">
+        <v>6000</v>
+      </c>
+      <c r="W366">
+        <v>239011</v>
+      </c>
+    </row>
+    <row r="367" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I367">
+        <v>70077</v>
+      </c>
+      <c r="K367">
+        <v>5</v>
+      </c>
+      <c r="L367" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M367">
+        <v>6000</v>
+      </c>
+      <c r="W367">
+        <v>235008</v>
+      </c>
+    </row>
+    <row r="368" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I368">
+        <v>70073</v>
+      </c>
+      <c r="K368">
+        <v>5</v>
+      </c>
+      <c r="L368" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M368">
+        <v>6000</v>
+      </c>
+      <c r="W368">
+        <v>201016</v>
+      </c>
+    </row>
+    <row r="369" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I369">
+        <v>70073</v>
+      </c>
+      <c r="K369">
+        <v>5</v>
+      </c>
+      <c r="L369" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M369">
+        <v>5000</v>
+      </c>
+      <c r="W369">
+        <v>201016</v>
+      </c>
+    </row>
+    <row r="370" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I370">
+        <v>70062</v>
+      </c>
+      <c r="K370">
+        <v>5</v>
+      </c>
+      <c r="L370" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M370">
+        <v>6000</v>
+      </c>
+      <c r="W370">
+        <v>207016</v>
+      </c>
+    </row>
+    <row r="371" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I371">
+        <v>70061</v>
+      </c>
+      <c r="K371">
+        <v>5</v>
+      </c>
+      <c r="L371" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M371">
+        <v>6000</v>
+      </c>
+      <c r="W371">
+        <v>207015</v>
+      </c>
+    </row>
+    <row r="372" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I372">
+        <v>70002</v>
+      </c>
+      <c r="K372">
+        <v>5</v>
+      </c>
+      <c r="L372" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M372">
+        <v>6000</v>
+      </c>
+      <c r="W372">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="373" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I373">
+        <v>51192</v>
+      </c>
+      <c r="K373">
+        <v>5</v>
+      </c>
+      <c r="L373" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M373">
+        <v>6000</v>
+      </c>
+      <c r="W373">
+        <v>211022</v>
+      </c>
+    </row>
+    <row r="374" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I374">
+        <v>51191</v>
+      </c>
+      <c r="K374">
+        <v>5</v>
+      </c>
+      <c r="L374" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M374">
+        <v>6000</v>
+      </c>
+      <c r="W374">
+        <v>211021</v>
+      </c>
+    </row>
+    <row r="375" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I375">
+        <v>51189</v>
+      </c>
+      <c r="K375">
+        <v>5</v>
+      </c>
+      <c r="L375" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M375">
+        <v>6000</v>
+      </c>
+      <c r="W375">
+        <v>211019</v>
+      </c>
+    </row>
+    <row r="376" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I376">
+        <v>51184</v>
+      </c>
+      <c r="K376">
+        <v>5</v>
+      </c>
+      <c r="L376" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M376">
+        <v>6000</v>
+      </c>
+      <c r="W376">
+        <v>211018</v>
+      </c>
+    </row>
+    <row r="377" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I377">
+        <v>51182</v>
+      </c>
+      <c r="K377">
+        <v>5</v>
+      </c>
+      <c r="L377" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M377">
+        <v>6000</v>
+      </c>
+      <c r="W377">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="378" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I378">
+        <v>51181</v>
+      </c>
+      <c r="K378">
+        <v>5</v>
+      </c>
+      <c r="L378" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M378">
+        <v>6000</v>
+      </c>
+      <c r="W378">
+        <v>211015</v>
+      </c>
+    </row>
+    <row r="379" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I379">
+        <v>51180</v>
+      </c>
+      <c r="K379">
+        <v>5</v>
+      </c>
+      <c r="L379" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M379">
+        <v>6000</v>
+      </c>
+      <c r="W379">
+        <v>211014</v>
+      </c>
+    </row>
+    <row r="380" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I380">
+        <v>51164</v>
+      </c>
+      <c r="K380">
+        <v>5</v>
+      </c>
+      <c r="L380" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M380">
+        <v>6000</v>
+      </c>
+      <c r="W380">
+        <v>212006</v>
+      </c>
+    </row>
+    <row r="381" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I381">
+        <v>51163</v>
+      </c>
+      <c r="K381">
+        <v>5</v>
+      </c>
+      <c r="L381" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M381">
+        <v>6000</v>
+      </c>
+      <c r="W381">
+        <v>212005</v>
+      </c>
+    </row>
+    <row r="382" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I382">
+        <v>51157</v>
+      </c>
+      <c r="K382">
+        <v>5</v>
+      </c>
+      <c r="L382" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M382">
+        <v>6000</v>
+      </c>
+      <c r="W382">
+        <v>219016</v>
+      </c>
+    </row>
+    <row r="383" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I383">
+        <v>51133</v>
+      </c>
+      <c r="K383">
+        <v>5</v>
+      </c>
+      <c r="L383" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M383">
+        <v>6000</v>
+      </c>
+      <c r="W383">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="384" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I384">
+        <v>51132</v>
+      </c>
+      <c r="K384">
+        <v>5</v>
+      </c>
+      <c r="L384" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M384">
+        <v>6000</v>
+      </c>
+      <c r="W384">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="385" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I385">
+        <v>51129</v>
+      </c>
+      <c r="K385">
+        <v>5</v>
+      </c>
+      <c r="L385" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M385">
+        <v>6000</v>
+      </c>
+      <c r="W385">
+        <v>214012</v>
+      </c>
+    </row>
+    <row r="386" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I386">
+        <v>51128</v>
+      </c>
+      <c r="K386">
+        <v>5</v>
+      </c>
+      <c r="L386" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M386">
+        <v>6000</v>
+      </c>
+      <c r="W386">
+        <v>214011</v>
+      </c>
+    </row>
+    <row r="387" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I387">
+        <v>51113</v>
+      </c>
+      <c r="K387">
+        <v>5</v>
+      </c>
+      <c r="L387" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M387">
+        <v>6000</v>
+      </c>
+      <c r="W387">
+        <v>215003</v>
+      </c>
+    </row>
+    <row r="388" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I388">
+        <v>51111</v>
+      </c>
+      <c r="K388">
+        <v>5</v>
+      </c>
+      <c r="L388" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M388">
+        <v>6000</v>
+      </c>
+      <c r="W388">
+        <v>210015</v>
+      </c>
+    </row>
+    <row r="389" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I389">
+        <v>51102</v>
+      </c>
+      <c r="K389">
+        <v>5</v>
+      </c>
+      <c r="L389" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M389">
+        <v>6000</v>
+      </c>
+      <c r="W389">
+        <v>250034</v>
+      </c>
+    </row>
+    <row r="390" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I390">
+        <v>51098</v>
+      </c>
+      <c r="K390">
+        <v>5</v>
+      </c>
+      <c r="L390" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M390">
+        <v>6000</v>
+      </c>
+      <c r="W390">
+        <v>219015</v>
+      </c>
+    </row>
+    <row r="391" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I391">
+        <v>51097</v>
+      </c>
+      <c r="K391">
+        <v>5</v>
+      </c>
+      <c r="L391" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M391">
+        <v>6000</v>
+      </c>
+      <c r="W391">
+        <v>214008</v>
+      </c>
+    </row>
+    <row r="392" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I392">
+        <v>51088</v>
+      </c>
+      <c r="K392">
+        <v>5</v>
+      </c>
+      <c r="L392" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M392">
+        <v>6000</v>
+      </c>
+      <c r="W392">
+        <v>250038</v>
+      </c>
+    </row>
+    <row r="393" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I393">
+        <v>51074</v>
+      </c>
+      <c r="K393">
+        <v>5</v>
+      </c>
+      <c r="L393" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M393">
+        <v>6000</v>
+      </c>
+      <c r="W393">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="394" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I394">
+        <v>51071</v>
+      </c>
+      <c r="K394">
+        <v>5</v>
+      </c>
+      <c r="L394" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M394">
+        <v>6000</v>
+      </c>
+      <c r="W394">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="395" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I395">
+        <v>51071</v>
+      </c>
+      <c r="K395">
+        <v>5</v>
+      </c>
+      <c r="L395" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M395">
+        <v>3500</v>
+      </c>
+      <c r="W395">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="396" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I396">
+        <v>51050</v>
+      </c>
+      <c r="K396">
+        <v>5</v>
+      </c>
+      <c r="L396" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M396">
+        <v>6000</v>
+      </c>
+      <c r="W396">
+        <v>219012</v>
+      </c>
+    </row>
+    <row r="397" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I397">
+        <v>51049</v>
+      </c>
+      <c r="K397">
+        <v>5</v>
+      </c>
+      <c r="L397" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M397">
+        <v>6000</v>
+      </c>
+      <c r="W397">
+        <v>219018</v>
+      </c>
+    </row>
+    <row r="398" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I398">
+        <v>51021</v>
+      </c>
+      <c r="K398">
+        <v>5</v>
+      </c>
+      <c r="L398" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M398">
+        <v>6000</v>
+      </c>
+      <c r="W398">
+        <v>219017</v>
+      </c>
+    </row>
+    <row r="399" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I399">
+        <v>27696</v>
+      </c>
+      <c r="K399">
+        <v>5</v>
+      </c>
+      <c r="L399" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M399">
+        <v>6000</v>
+      </c>
+      <c r="W399">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="400" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I400">
+        <v>27696</v>
+      </c>
+      <c r="K400">
+        <v>5</v>
+      </c>
+      <c r="L400" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M400">
+        <v>4000</v>
+      </c>
+      <c r="W400">
+        <v>317705</v>
+      </c>
+    </row>
+    <row r="401" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I401">
+        <v>27666</v>
+      </c>
+      <c r="K401">
+        <v>5</v>
+      </c>
+      <c r="L401" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M401">
+        <v>5350</v>
+      </c>
+      <c r="W401">
+        <v>317704</v>
+      </c>
+    </row>
+    <row r="402" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I402">
+        <v>27630</v>
+      </c>
+      <c r="K402">
+        <v>5</v>
+      </c>
+      <c r="L402" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M402">
+        <v>2150</v>
+      </c>
+      <c r="W402">
+        <v>317702</v>
+      </c>
+    </row>
+    <row r="403" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I403">
+        <v>27616</v>
+      </c>
+      <c r="K403">
+        <v>5</v>
+      </c>
+      <c r="L403" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M403">
+        <v>6000</v>
+      </c>
+      <c r="W403">
+        <v>317703</v>
+      </c>
+    </row>
+    <row r="404" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I404">
+        <v>27582</v>
+      </c>
+      <c r="K404">
+        <v>5</v>
+      </c>
+      <c r="L404" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M404">
+        <v>6000</v>
+      </c>
+      <c r="W404">
+        <v>317636</v>
+      </c>
+    </row>
+    <row r="405" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I405">
+        <v>27561</v>
+      </c>
+      <c r="K405">
+        <v>5</v>
+      </c>
+      <c r="L405" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M405">
+        <v>6000</v>
+      </c>
+      <c r="W405">
+        <v>317636</v>
+      </c>
+    </row>
+    <row r="406" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I406">
+        <v>19169</v>
+      </c>
+      <c r="K406">
+        <v>5</v>
+      </c>
+      <c r="L406" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M406">
+        <v>6000</v>
+      </c>
+      <c r="W406">
+        <v>309211</v>
+      </c>
+    </row>
+    <row r="407" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I407">
+        <v>18926</v>
+      </c>
+      <c r="K407">
+        <v>5</v>
+      </c>
+      <c r="L407" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M407">
+        <v>6000</v>
+      </c>
+      <c r="W407">
+        <v>308900</v>
+      </c>
+    </row>
+    <row r="408" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I408">
+        <v>18923</v>
+      </c>
+      <c r="K408">
+        <v>5</v>
+      </c>
+      <c r="L408" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M408">
+        <v>6000</v>
+      </c>
+      <c r="W408">
+        <v>308904</v>
+      </c>
+    </row>
+    <row r="409" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I409">
+        <v>18915</v>
+      </c>
+      <c r="K409">
+        <v>5</v>
+      </c>
+      <c r="L409" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M409">
+        <v>6000</v>
+      </c>
+      <c r="W409">
+        <v>308903</v>
+      </c>
+    </row>
+    <row r="410" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I410">
+        <v>18911</v>
+      </c>
+      <c r="K410">
+        <v>5</v>
+      </c>
+      <c r="L410" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M410">
+        <v>6000</v>
+      </c>
+      <c r="W410">
+        <v>308902</v>
+      </c>
+    </row>
+    <row r="411" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I411">
+        <v>18801</v>
+      </c>
+      <c r="K411">
+        <v>5</v>
+      </c>
+      <c r="L411" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M411">
+        <v>6000</v>
+      </c>
+      <c r="W411">
+        <v>308901</v>
+      </c>
+    </row>
+    <row r="412" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I412">
+        <v>18801</v>
+      </c>
+      <c r="K412">
+        <v>5</v>
+      </c>
+      <c r="L412" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M412">
+        <v>4500</v>
+      </c>
+      <c r="W412">
+        <v>308901</v>
+      </c>
+    </row>
+    <row r="413" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I413">
+        <v>18495</v>
+      </c>
+      <c r="K413">
+        <v>5</v>
+      </c>
+      <c r="L413" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M413">
+        <v>6000</v>
+      </c>
+      <c r="W413">
+        <v>308528</v>
+      </c>
+    </row>
+    <row r="414" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I414">
+        <v>18454</v>
+      </c>
+      <c r="K414">
+        <v>5</v>
+      </c>
+      <c r="L414" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M414">
+        <v>6000</v>
+      </c>
+      <c r="W414">
+        <v>308527</v>
+      </c>
+    </row>
+    <row r="415" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I415">
+        <v>18454</v>
+      </c>
+      <c r="K415">
+        <v>5</v>
+      </c>
+      <c r="L415" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M415">
+        <v>3500</v>
+      </c>
+      <c r="W415">
+        <v>308527</v>
+      </c>
+    </row>
+    <row r="416" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I416">
+        <v>18333</v>
+      </c>
+      <c r="K416">
+        <v>5</v>
+      </c>
+      <c r="L416" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M416">
+        <v>6000</v>
+      </c>
+      <c r="W416">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="417" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I417">
+        <v>18333</v>
+      </c>
+      <c r="K417">
+        <v>5</v>
+      </c>
+      <c r="L417" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M417">
+        <v>5050</v>
+      </c>
+      <c r="W417">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="418" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I418">
+        <v>11501</v>
+      </c>
+      <c r="K418">
+        <v>5</v>
+      </c>
+      <c r="L418" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M418">
+        <v>6000</v>
+      </c>
+      <c r="W418">
+        <v>301510</v>
+      </c>
+    </row>
+    <row r="419" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I419">
+        <v>11475</v>
+      </c>
+      <c r="K419">
+        <v>5</v>
+      </c>
+      <c r="L419" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M419">
+        <v>4050</v>
+      </c>
+      <c r="W419">
+        <v>301509</v>
+      </c>
+    </row>
+    <row r="420" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I420">
+        <v>11470</v>
+      </c>
+      <c r="K420">
+        <v>5</v>
+      </c>
+      <c r="L420" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M420">
+        <v>6000</v>
+      </c>
+      <c r="W420">
+        <v>301508</v>
+      </c>
+    </row>
+    <row r="421" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I421">
+        <v>11458</v>
+      </c>
+      <c r="K421">
+        <v>5</v>
+      </c>
+      <c r="L421" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M421">
+        <v>6000</v>
+      </c>
+      <c r="W421">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="422" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I422">
+        <v>11407</v>
+      </c>
+      <c r="K422">
+        <v>5</v>
+      </c>
+      <c r="L422" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M422">
+        <v>6000</v>
+      </c>
+      <c r="W422">
+        <v>301506</v>
+      </c>
+    </row>
+    <row r="423" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I423">
+        <v>10596</v>
+      </c>
+      <c r="K423">
+        <v>5</v>
+      </c>
+      <c r="L423" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M423">
+        <v>6000</v>
+      </c>
+      <c r="W423">
+        <v>300506</v>
+      </c>
+    </row>
+    <row r="424" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I424">
+        <v>10435</v>
+      </c>
+      <c r="K424">
+        <v>5</v>
+      </c>
+      <c r="L424" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M424">
+        <v>6000</v>
+      </c>
+      <c r="W424">
+        <v>300504</v>
+      </c>
+    </row>
+    <row r="425" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I425">
+        <v>10421</v>
+      </c>
+      <c r="K425">
+        <v>5</v>
+      </c>
+      <c r="L425" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M425">
+        <v>6000</v>
+      </c>
+      <c r="W425">
+        <v>300503</v>
+      </c>
+    </row>
+    <row r="426" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I426">
+        <v>30329</v>
+      </c>
+      <c r="K426">
+        <v>5</v>
+      </c>
+      <c r="L426" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M426">
+        <v>6000</v>
+      </c>
+      <c r="W426">
+        <v>247053</v>
+      </c>
+    </row>
+    <row r="427" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I427">
+        <v>70216</v>
+      </c>
+      <c r="K427">
+        <v>5</v>
+      </c>
+      <c r="L427" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M427">
+        <v>6000</v>
+      </c>
+      <c r="W427">
+        <v>202013</v>
+      </c>
+    </row>
+    <row r="428" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I428">
+        <v>51071</v>
+      </c>
+      <c r="K428">
+        <v>5</v>
+      </c>
+      <c r="L428" s="4">
+        <v>43</v>
+      </c>
+      <c r="M428">
+        <v>5000</v>
+      </c>
+      <c r="W428">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="429" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I429">
+        <v>11458</v>
+      </c>
+      <c r="K429">
+        <v>5</v>
+      </c>
+      <c r="L429" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M429">
+        <v>6000</v>
+      </c>
+      <c r="W429">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="430" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I430">
+        <v>70158</v>
+      </c>
+      <c r="K430">
+        <v>5</v>
+      </c>
+      <c r="L430" s="4">
+        <v>41</v>
+      </c>
+      <c r="M430">
+        <v>2500</v>
+      </c>
+      <c r="W430">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="431" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I431">
+        <v>70158</v>
+      </c>
+      <c r="K431">
+        <v>5</v>
+      </c>
+      <c r="L431" s="4">
+        <v>41</v>
+      </c>
+      <c r="M431">
+        <v>3000</v>
+      </c>
+      <c r="W431">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="432" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I432">
+        <v>70158</v>
+      </c>
+      <c r="K432">
+        <v>5</v>
+      </c>
+      <c r="L432" s="4">
+        <v>41</v>
+      </c>
+      <c r="M432">
+        <v>2000</v>
+      </c>
+      <c r="W432">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="433" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I433">
+        <v>70002</v>
+      </c>
+      <c r="K433">
+        <v>5</v>
+      </c>
+      <c r="L433" s="4">
+        <v>23</v>
+      </c>
+      <c r="M433">
+        <v>6000</v>
+      </c>
+      <c r="W433">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="434" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I434">
+        <v>70002</v>
+      </c>
+      <c r="K434">
+        <v>5</v>
+      </c>
+      <c r="L434" s="4">
+        <v>54</v>
+      </c>
+      <c r="M434">
+        <v>6000</v>
+      </c>
+      <c r="W434">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="435" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I435">
+        <v>11458</v>
+      </c>
+      <c r="K435">
+        <v>5</v>
+      </c>
+      <c r="L435" s="4">
+        <v>92</v>
+      </c>
+      <c r="M435">
+        <v>6000</v>
+      </c>
+      <c r="W435">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="436" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I436">
+        <v>70002</v>
+      </c>
+      <c r="K436">
+        <v>5</v>
+      </c>
+      <c r="L436" s="4">
+        <v>32</v>
+      </c>
+      <c r="M436">
+        <v>6000</v>
+      </c>
+      <c r="W436">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="437" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I437">
+        <v>11458</v>
+      </c>
+      <c r="K437">
+        <v>5</v>
+      </c>
+      <c r="L437" s="4">
+        <v>53</v>
+      </c>
+      <c r="M437">
+        <v>6000</v>
+      </c>
+      <c r="W437">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="438" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I438">
+        <v>70213</v>
+      </c>
+      <c r="K438">
+        <v>5</v>
+      </c>
+      <c r="L438" s="4">
+        <v>32</v>
+      </c>
+      <c r="M438">
+        <v>6000</v>
+      </c>
+      <c r="W438">
+        <v>209012</v>
+      </c>
+    </row>
+    <row r="439" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I439">
+        <v>11458</v>
+      </c>
+      <c r="K439">
+        <v>5</v>
+      </c>
+      <c r="L439" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M439">
+        <v>6000</v>
+      </c>
+      <c r="W439">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="440" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I440">
+        <v>70082</v>
+      </c>
+      <c r="K440">
+        <v>5</v>
+      </c>
+      <c r="L440" s="4">
+        <v>32</v>
+      </c>
+      <c r="M440">
+        <v>6000</v>
+      </c>
+      <c r="W440">
+        <v>239007</v>
+      </c>
+    </row>
+    <row r="441" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I441">
+        <v>51074</v>
+      </c>
+      <c r="K441">
+        <v>5</v>
+      </c>
+      <c r="L441" s="4">
+        <v>43</v>
+      </c>
+      <c r="M441">
+        <v>6000</v>
+      </c>
+      <c r="W441">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="442" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I442">
+        <v>51071</v>
+      </c>
+      <c r="K442">
+        <v>5</v>
+      </c>
+      <c r="L442" s="4">
+        <v>43</v>
+      </c>
+      <c r="M442">
+        <v>6000</v>
+      </c>
+      <c r="W442">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="443" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I443">
+        <v>70213</v>
+      </c>
+      <c r="K443">
+        <v>5</v>
+      </c>
+      <c r="L443" s="4">
+        <v>41</v>
+      </c>
+      <c r="M443">
+        <v>6000</v>
+      </c>
+      <c r="W443">
+        <v>209012</v>
+      </c>
+    </row>
+    <row r="444" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I444">
+        <v>70273</v>
+      </c>
+      <c r="K444">
+        <v>5</v>
+      </c>
+      <c r="L444" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M444">
+        <v>6000</v>
+      </c>
+      <c r="W444">
+        <v>204017</v>
+      </c>
+    </row>
+    <row r="445" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I445">
+        <v>11458</v>
+      </c>
+      <c r="K445">
+        <v>5</v>
+      </c>
+      <c r="L445" s="4">
+        <v>107</v>
+      </c>
+      <c r="M445">
+        <v>6000</v>
+      </c>
+      <c r="W445">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="446" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I446">
+        <v>70002</v>
+      </c>
+      <c r="K446">
+        <v>5</v>
+      </c>
+      <c r="L446" s="4">
+        <v>50</v>
+      </c>
+      <c r="M446">
+        <v>6000</v>
+      </c>
+      <c r="W446">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="447" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I447">
+        <v>51074</v>
+      </c>
+      <c r="K447">
+        <v>5</v>
+      </c>
+      <c r="L447" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M447">
+        <v>6000</v>
+      </c>
+      <c r="W447">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="448" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I448">
+        <v>11458</v>
+      </c>
+      <c r="K448">
+        <v>5</v>
+      </c>
+      <c r="L448" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M448">
+        <v>6000</v>
+      </c>
+      <c r="W448">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="449" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I449">
+        <v>11458</v>
+      </c>
+      <c r="K449">
+        <v>5</v>
+      </c>
+      <c r="L449" s="4">
+        <v>38</v>
+      </c>
+      <c r="M449">
+        <v>6000</v>
+      </c>
+      <c r="W449">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="450" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I450">
+        <v>18911</v>
+      </c>
+      <c r="K450">
+        <v>5</v>
+      </c>
+      <c r="L450" s="4">
+        <v>32</v>
+      </c>
+      <c r="M450">
+        <v>6000</v>
+      </c>
+      <c r="W450">
+        <v>308902</v>
+      </c>
+    </row>
+    <row r="451" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I451">
+        <v>70175</v>
+      </c>
+      <c r="K451">
+        <v>5</v>
+      </c>
+      <c r="L451" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M451">
+        <v>6000</v>
+      </c>
+      <c r="W451">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="452" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I452">
+        <v>70180</v>
+      </c>
+      <c r="K452">
+        <v>5</v>
+      </c>
+      <c r="L452" s="4">
+        <v>38</v>
+      </c>
+      <c r="M452">
+        <v>6000</v>
+      </c>
+      <c r="W452">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="453" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I453">
+        <v>70175</v>
+      </c>
+      <c r="K453">
+        <v>5</v>
+      </c>
+      <c r="L453" s="4">
+        <v>38</v>
+      </c>
+      <c r="M453">
+        <v>6000</v>
+      </c>
+      <c r="W453">
+        <v>225020</v>
+      </c>
+    </row>
+    <row r="454" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I454">
+        <v>18333</v>
+      </c>
+      <c r="K454">
+        <v>5</v>
+      </c>
+      <c r="L454" s="4">
+        <v>38</v>
+      </c>
+      <c r="M454">
+        <v>6000</v>
+      </c>
+      <c r="W454">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="455" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I455">
+        <v>51071</v>
+      </c>
+      <c r="K455">
+        <v>5</v>
+      </c>
+      <c r="L455" s="4">
+        <v>44</v>
+      </c>
+      <c r="M455">
+        <v>6000</v>
+      </c>
+      <c r="W455">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="456" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I456" t="s">
+        <v>25</v>
+      </c>
+      <c r="K456">
+        <v>5</v>
+      </c>
+      <c r="L456" s="4">
+        <v>32</v>
+      </c>
+      <c r="M456">
+        <v>6000</v>
+      </c>
+      <c r="W456">
+        <v>309210</v>
+      </c>
+    </row>
+    <row r="457" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I457">
+        <v>51074</v>
+      </c>
+      <c r="K457">
+        <v>5</v>
+      </c>
+      <c r="L457" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M457">
+        <v>6000</v>
+      </c>
+      <c r="W457">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="458" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I458">
+        <v>11458</v>
+      </c>
+      <c r="K458">
+        <v>5</v>
+      </c>
+      <c r="L458" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M458">
+        <v>6000</v>
+      </c>
+      <c r="W458">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="459" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I459">
+        <v>51074</v>
+      </c>
+      <c r="K459">
+        <v>5</v>
+      </c>
+      <c r="L459" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M459">
+        <v>6000</v>
+      </c>
+      <c r="W459">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="460" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I460">
+        <v>11458</v>
+      </c>
+      <c r="K460">
+        <v>5</v>
+      </c>
+      <c r="L460" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M460">
+        <v>6000</v>
+      </c>
+      <c r="W460">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="461" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I461" t="s">
+        <v>25</v>
+      </c>
+      <c r="K461">
+        <v>5</v>
+      </c>
+      <c r="L461" s="4">
+        <v>54</v>
+      </c>
+      <c r="M461">
+        <v>6000</v>
+      </c>
+      <c r="W461">
+        <v>309210</v>
+      </c>
+    </row>
+    <row r="462" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I462">
+        <v>51071</v>
+      </c>
+      <c r="K462">
+        <v>5</v>
+      </c>
+      <c r="L462" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M462">
+        <v>6000</v>
+      </c>
+      <c r="W462">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="463" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I463">
+        <v>70247</v>
+      </c>
+      <c r="K463">
+        <v>5</v>
+      </c>
+      <c r="L463" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M463">
+        <v>6000</v>
+      </c>
+      <c r="W463">
+        <v>204012</v>
+      </c>
+    </row>
+    <row r="464" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I464">
+        <v>70158</v>
+      </c>
+      <c r="K464">
+        <v>5</v>
+      </c>
+      <c r="L464" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M464">
+        <v>6000</v>
+      </c>
+      <c r="W464">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="465" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I465">
+        <v>70079</v>
+      </c>
+      <c r="K465">
+        <v>5</v>
+      </c>
+      <c r="L465" s="4">
+        <v>32</v>
+      </c>
+      <c r="M465">
+        <v>6000</v>
+      </c>
+      <c r="W465">
+        <v>239011</v>
+      </c>
+    </row>
+    <row r="466" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I466">
+        <v>70061</v>
+      </c>
+      <c r="K466">
+        <v>5</v>
+      </c>
+      <c r="L466" s="4">
+        <v>32</v>
+      </c>
+      <c r="M466">
+        <v>6000</v>
+      </c>
+      <c r="W466">
+        <v>207015</v>
+      </c>
+    </row>
+    <row r="467" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I467">
+        <v>70080</v>
+      </c>
+      <c r="K467">
+        <v>5</v>
+      </c>
+      <c r="L467" s="4">
+        <v>32</v>
+      </c>
+      <c r="M467">
+        <v>6000</v>
+      </c>
+      <c r="W467">
+        <v>239012</v>
+      </c>
+    </row>
+    <row r="468" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I468">
+        <v>70167</v>
+      </c>
+      <c r="K468">
+        <v>5</v>
+      </c>
+      <c r="L468" s="4">
+        <v>32</v>
+      </c>
+      <c r="M468">
+        <v>6000</v>
+      </c>
+      <c r="W468">
+        <v>202012</v>
+      </c>
+    </row>
+    <row r="469" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I469">
+        <v>70210</v>
+      </c>
+      <c r="K469">
+        <v>5</v>
+      </c>
+      <c r="L469" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M469">
+        <v>6000</v>
+      </c>
+      <c r="W469">
+        <v>202015</v>
+      </c>
+    </row>
+    <row r="470" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I470">
+        <v>70158</v>
+      </c>
+      <c r="K470">
+        <v>5</v>
+      </c>
+      <c r="L470" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M470">
+        <v>6000</v>
+      </c>
+      <c r="W470">
+        <v>202011</v>
+      </c>
+    </row>
+    <row r="471" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I471">
+        <v>70180</v>
+      </c>
+      <c r="K471">
+        <v>5</v>
+      </c>
+      <c r="L471" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M471">
+        <v>5000</v>
+      </c>
+      <c r="W471">
+        <v>225021</v>
+      </c>
+    </row>
+    <row r="472" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I472">
+        <v>27666</v>
+      </c>
+      <c r="K472">
+        <v>5</v>
+      </c>
+      <c r="L472" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M472">
+        <v>6000</v>
+      </c>
+      <c r="W472">
+        <v>317704</v>
+      </c>
+    </row>
+    <row r="473" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I473">
+        <v>70151</v>
+      </c>
+      <c r="K473">
+        <v>5</v>
+      </c>
+      <c r="L473" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M473">
+        <v>6000</v>
+      </c>
+      <c r="W473">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="474" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I474">
+        <v>80000</v>
+      </c>
+      <c r="K474">
+        <v>5</v>
+      </c>
+      <c r="L474" s="4">
+        <v>32</v>
+      </c>
+      <c r="M474">
+        <v>6000</v>
+      </c>
+      <c r="W474">
+        <v>235009</v>
+      </c>
+    </row>
+    <row r="475" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I475">
+        <v>80000</v>
+      </c>
+      <c r="K475">
+        <v>5</v>
+      </c>
+      <c r="L475" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M475">
+        <v>6000</v>
+      </c>
+      <c r="W475">
+        <v>235009</v>
+      </c>
+    </row>
+    <row r="476" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I476">
+        <v>70273</v>
+      </c>
+      <c r="K476">
+        <v>5</v>
+      </c>
+      <c r="L476" s="4">
+        <v>32</v>
+      </c>
+      <c r="M476">
+        <v>6000</v>
+      </c>
+      <c r="W476">
+        <v>204017</v>
+      </c>
+    </row>
+    <row r="477" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I477">
+        <v>70271</v>
+      </c>
+      <c r="K477">
+        <v>5</v>
+      </c>
+      <c r="L477" s="4">
+        <v>32</v>
+      </c>
+      <c r="M477">
+        <v>6000</v>
+      </c>
+      <c r="W477">
+        <v>222052</v>
+      </c>
+    </row>
+    <row r="478" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I478">
+        <v>70267</v>
+      </c>
+      <c r="K478">
+        <v>5</v>
+      </c>
+      <c r="L478" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M478">
+        <v>6000</v>
+      </c>
+      <c r="W478">
+        <v>225024</v>
+      </c>
+    </row>
+    <row r="479" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I479">
+        <v>70264</v>
+      </c>
+      <c r="K479">
+        <v>5</v>
+      </c>
+      <c r="L479" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M479">
+        <v>6000</v>
+      </c>
+      <c r="W479">
+        <v>204016</v>
+      </c>
+    </row>
+    <row r="480" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I480">
+        <v>70264</v>
+      </c>
+      <c r="K480">
+        <v>5</v>
+      </c>
+      <c r="L480" s="4">
+        <v>32</v>
+      </c>
+      <c r="M480">
+        <v>6000</v>
+      </c>
+      <c r="W480">
+        <v>204016</v>
+      </c>
+    </row>
+    <row r="481" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I481">
+        <v>70213</v>
+      </c>
+      <c r="K481">
+        <v>5</v>
+      </c>
+      <c r="L481" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M481">
+        <v>6000</v>
+      </c>
+      <c r="W481">
+        <v>209012</v>
+      </c>
+    </row>
+    <row r="482" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I482">
+        <v>70178</v>
+      </c>
+      <c r="K482">
+        <v>5</v>
+      </c>
+      <c r="L482" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M482">
+        <v>6000</v>
+      </c>
+      <c r="W482">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="483" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I483">
+        <v>70178</v>
+      </c>
+      <c r="K483">
+        <v>5</v>
+      </c>
+      <c r="L483" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M483">
+        <v>5500</v>
+      </c>
+      <c r="W483">
+        <v>209015</v>
+      </c>
+    </row>
+    <row r="484" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I484">
+        <v>70171</v>
+      </c>
+      <c r="K484">
+        <v>5</v>
+      </c>
+      <c r="L484" s="4">
+        <v>38</v>
+      </c>
+      <c r="M484">
+        <v>6000</v>
+      </c>
+      <c r="W484">
+        <v>225019</v>
+      </c>
+    </row>
+    <row r="485" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I485">
+        <v>70170</v>
+      </c>
+      <c r="K485">
+        <v>5</v>
+      </c>
+      <c r="L485" s="4">
+        <v>38</v>
+      </c>
+      <c r="M485">
+        <v>6000</v>
+      </c>
+      <c r="W485">
+        <v>225018</v>
+      </c>
+    </row>
+    <row r="486" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I486">
+        <v>70151</v>
+      </c>
+      <c r="K486">
+        <v>5</v>
+      </c>
+      <c r="L486" s="4">
+        <v>32</v>
+      </c>
+      <c r="M486">
+        <v>6000</v>
+      </c>
+      <c r="W486">
+        <v>202010</v>
+      </c>
+    </row>
+    <row r="487" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I487">
+        <v>70002</v>
+      </c>
+      <c r="K487">
+        <v>5</v>
+      </c>
+      <c r="L487" s="4">
+        <v>95</v>
+      </c>
+      <c r="M487">
+        <v>6000</v>
+      </c>
+      <c r="W487">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="488" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I488">
+        <v>70002</v>
+      </c>
+      <c r="K488">
+        <v>5</v>
+      </c>
+      <c r="L488" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M488">
+        <v>6000</v>
+      </c>
+      <c r="W488">
+        <v>229026</v>
+      </c>
+    </row>
+    <row r="489" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I489">
+        <v>51158</v>
+      </c>
+      <c r="K489">
+        <v>5</v>
+      </c>
+      <c r="L489" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M489">
+        <v>6000</v>
+      </c>
+      <c r="W489">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="490" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I490">
+        <v>51158</v>
+      </c>
+      <c r="K490">
+        <v>5</v>
+      </c>
+      <c r="L490" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M490">
+        <v>6000</v>
+      </c>
+      <c r="W490">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="491" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I491">
+        <v>51158</v>
+      </c>
+      <c r="K491">
+        <v>5</v>
+      </c>
+      <c r="L491" s="4">
+        <v>38</v>
+      </c>
+      <c r="M491">
+        <v>6000</v>
+      </c>
+      <c r="W491">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="492" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I492">
+        <v>51158</v>
+      </c>
+      <c r="K492">
+        <v>5</v>
+      </c>
+      <c r="L492" s="4">
+        <v>32</v>
+      </c>
+      <c r="M492">
+        <v>6000</v>
+      </c>
+      <c r="W492">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="493" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I493">
+        <v>51158</v>
+      </c>
+      <c r="K493">
+        <v>5</v>
+      </c>
+      <c r="L493" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M493">
+        <v>6000</v>
+      </c>
+      <c r="W493">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="494" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I494">
+        <v>51158</v>
+      </c>
+      <c r="K494">
+        <v>5</v>
+      </c>
+      <c r="L494" s="4">
+        <v>18</v>
+      </c>
+      <c r="M494">
+        <v>6000</v>
+      </c>
+      <c r="W494">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="495" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I495">
+        <v>51158</v>
+      </c>
+      <c r="K495">
+        <v>5</v>
+      </c>
+      <c r="L495" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M495">
+        <v>6000</v>
+      </c>
+      <c r="W495">
+        <v>212001</v>
+      </c>
+    </row>
+    <row r="496" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I496">
+        <v>51133</v>
+      </c>
+      <c r="K496">
+        <v>5</v>
+      </c>
+      <c r="L496" s="4">
+        <v>32</v>
+      </c>
+      <c r="M496">
+        <v>6000</v>
+      </c>
+      <c r="W496">
+        <v>214010</v>
+      </c>
+    </row>
+    <row r="497" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I497">
+        <v>51132</v>
+      </c>
+      <c r="K497">
+        <v>5</v>
+      </c>
+      <c r="L497" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M497">
+        <v>6000</v>
+      </c>
+      <c r="W497">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="498" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I498">
+        <v>51132</v>
+      </c>
+      <c r="K498">
+        <v>5</v>
+      </c>
+      <c r="L498" s="4">
+        <v>32</v>
+      </c>
+      <c r="M498">
+        <v>6000</v>
+      </c>
+      <c r="W498">
+        <v>214009</v>
+      </c>
+    </row>
+    <row r="499" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I499">
+        <v>51074</v>
+      </c>
+      <c r="K499">
+        <v>5</v>
+      </c>
+      <c r="L499" s="4">
+        <v>32</v>
+      </c>
+      <c r="M499">
+        <v>6000</v>
+      </c>
+      <c r="W499">
+        <v>210014</v>
+      </c>
+    </row>
+    <row r="500" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I500">
+        <v>51071</v>
+      </c>
+      <c r="K500">
+        <v>5</v>
+      </c>
+      <c r="L500" s="4">
+        <v>32</v>
+      </c>
+      <c r="M500">
+        <v>3500</v>
+      </c>
+      <c r="W500">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="501" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I501">
+        <v>51071</v>
+      </c>
+      <c r="K501">
+        <v>5</v>
+      </c>
+      <c r="L501" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M501">
+        <v>6000</v>
+      </c>
+      <c r="W501">
+        <v>210013</v>
+      </c>
+    </row>
+    <row r="502" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I502">
+        <v>18333</v>
+      </c>
+      <c r="K502">
+        <v>5</v>
+      </c>
+      <c r="L502" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M502">
+        <v>6000</v>
+      </c>
+      <c r="W502">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="503" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I503">
+        <v>18333</v>
+      </c>
+      <c r="K503">
+        <v>5</v>
+      </c>
+      <c r="L503" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M503">
+        <v>6000</v>
+      </c>
+      <c r="W503">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="504" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I504">
+        <v>18333</v>
+      </c>
+      <c r="K504">
+        <v>5</v>
+      </c>
+      <c r="L504" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M504">
+        <v>6000</v>
+      </c>
+      <c r="W504">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="505" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I505">
+        <v>18333</v>
+      </c>
+      <c r="K505">
+        <v>5</v>
+      </c>
+      <c r="L505" s="4">
+        <v>41</v>
+      </c>
+      <c r="M505">
+        <v>6000</v>
+      </c>
+      <c r="W505">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="506" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I506">
+        <v>18333</v>
+      </c>
+      <c r="K506">
+        <v>5</v>
+      </c>
+      <c r="L506" s="4">
+        <v>32</v>
+      </c>
+      <c r="M506">
+        <v>6000</v>
+      </c>
+      <c r="W506">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="507" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I507">
+        <v>18333</v>
+      </c>
+      <c r="K507">
+        <v>5</v>
+      </c>
+      <c r="L507" s="4">
+        <v>12</v>
+      </c>
+      <c r="M507">
+        <v>6000</v>
+      </c>
+      <c r="W507">
+        <v>308406</v>
+      </c>
+    </row>
+    <row r="508" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I508">
+        <v>11458</v>
+      </c>
+      <c r="K508">
+        <v>5</v>
+      </c>
+      <c r="L508" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M508">
+        <v>6000</v>
+      </c>
+      <c r="W508">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="509" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I509">
+        <v>11458</v>
+      </c>
+      <c r="K509">
+        <v>5</v>
+      </c>
+      <c r="L509" s="4">
+        <v>32</v>
+      </c>
+      <c r="M509">
+        <v>6000</v>
+      </c>
+      <c r="W509">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="510" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I510">
+        <v>11414</v>
+      </c>
+      <c r="K510">
+        <v>5</v>
+      </c>
+      <c r="L510" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M510">
+        <v>6000</v>
+      </c>
+      <c r="W510">
+        <v>301507</v>
       </c>
     </row>
   </sheetData>
